--- a/WebApplication1/Template/Tier Hierarchy.xlsx
+++ b/WebApplication1/Template/Tier Hierarchy.xlsx
@@ -37537,9 +37537,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </x:sheetView>
+  </x:sheetViews>
   <x:cols>
     <x:col min="1" max="1" width="10.5" customWidth="1"/>
-    <x:col min="2" max="2" width="19.42" customWidth="1"/>
+    <x:col min="2" max="2" width="18.7" customWidth="1"/>
     <x:col min="3" max="3" width="10.99" customWidth="1"/>
     <x:col min="4" max="4" width="66.84" customWidth="1"/>
     <x:col min="5" max="5" width="19.7" customWidth="1"/>

--- a/WebApplication1/Template/Tier Hierarchy.xlsx
+++ b/WebApplication1/Template/Tier Hierarchy.xlsx
@@ -117,6 +117,92 @@
       <x:b/>
       <x:sz val="10"/>
       <x:name val="Calibri Light"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:i/>
+      <x:sz val="12.5"/>
+      <x:color/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:i/>
+      <x:sz val="11"/>
+      <x:color rgb="862d2d"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="002b80"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:i/>
+      <x:sz val="11"/>
+      <x:color rgb="002b80"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="10"/>
+      <x:color rgb="003366"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="10"/>
+      <x:color rgb="003366"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="10"/>
+      <x:color rgb="003366"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="10"/>
+      <x:color rgb="003366"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:i/>
+      <x:sz val="12.5"/>
+      <x:color/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:i/>
+      <x:sz val="11"/>
+      <x:color rgb="862d2d"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="002b80"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:i/>
+      <x:sz val="11"/>
+      <x:color rgb="002b80"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="10"/>
+      <x:color rgb="003366"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="10"/>
+      <x:color rgb="003366"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="10"/>
+      <x:color rgb="003366"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="10"/>
+      <x:color rgb="003366"/>
     </x:font>
     <x:font>
       <x:b/>
@@ -21519,14 +21605,6 @@
     <x:border/>
     <x:border/>
     <x:border/>
-    <x:border/>
-    <x:border/>
-    <x:border/>
-    <x:border/>
-    <x:border/>
-    <x:border/>
-    <x:border/>
-    <x:border/>
     <x:border>
       <x:bottom style="thick">
         <x:color indexed="64"/>
@@ -22247,6 +22325,14 @@
     <x:border/>
     <x:border/>
     <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
     <x:border>
       <x:bottom style="thick">
         <x:color indexed="64"/>
@@ -24959,6 +25045,22 @@
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
+    <x:border/>
     <x:border/>
     <x:border/>
     <x:border/>
@@ -37255,6 +37357,54 @@
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3937" borderId="3931" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3938" borderId="3932" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3939" borderId="3933" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3940" borderId="3934" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3941" borderId="3935" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3942" borderId="3936" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3943" borderId="3937" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3944" borderId="3938" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3945" borderId="3939" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3946" borderId="3940" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3947" borderId="3941" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3948" borderId="3942" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3949" borderId="3943" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3950" borderId="3944" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3951" borderId="3945" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3952" borderId="3946" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3953" borderId="3947" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -37544,7 +37694,7 @@
   </x:sheetViews>
   <x:cols>
     <x:col min="1" max="1" width="10.5" customWidth="1"/>
-    <x:col min="2" max="2" width="18.7" customWidth="1"/>
+    <x:col min="2" max="2" width="17.99" customWidth="1"/>
     <x:col min="3" max="3" width="10.99" customWidth="1"/>
     <x:col min="4" max="4" width="66.84" customWidth="1"/>
     <x:col min="5" max="5" width="19.7" customWidth="1"/>
@@ -37800,22 +37950,22 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="79" t="str">
-        <x:v>P1712</x:v>
+        <x:v>P3409</x:v>
       </x:c>
       <x:c s="80" t="str">
-        <x:v>IBM MFA</x:v>
+        <x:v>Rocket Process Automation (IBM i Edition) (Rocket API)</x:v>
       </x:c>
       <x:c s="81" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Power Systems</x:v>
       </x:c>
       <x:c s="82" t="str">
-        <x:v>Z Security</x:v>
+        <x:v>IBM i</x:v>
       </x:c>
       <x:c s="83" t="str">
-        <x:v>Z/MFA1</x:v>
+        <x:v>Rocket Intelligent Legacy Automation</x:v>
       </x:c>
       <x:c s="84" t="str">
-        <x:v>Z/MFA</x:v>
+        <x:v>Rocket Process Automation</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -37826,22 +37976,22 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="87" t="str">
-        <x:v>P3409</x:v>
+        <x:v>P6006</x:v>
       </x:c>
       <x:c s="88" t="str">
-        <x:v>Rocket Process Automation (IBM i Edition) (Rocket API)</x:v>
+        <x:v>U2 Web Development Environment</x:v>
       </x:c>
       <x:c s="89" t="str">
-        <x:v>Power Systems</x:v>
+        <x:v>Database &amp; Connectivity</x:v>
       </x:c>
       <x:c s="90" t="str">
-        <x:v>IBM i</x:v>
+        <x:v>MV</x:v>
       </x:c>
       <x:c s="91" t="str">
-        <x:v>Rocket Intelligent Legacy Automation</x:v>
+        <x:v>MV Tools</x:v>
       </x:c>
       <x:c s="92" t="str">
-        <x:v>Rocket Process Automation</x:v>
+        <x:v>MV Integration Server/U2 Web DE</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -37852,10 +38002,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="95" t="str">
-        <x:v>P6006</x:v>
+        <x:v>P6024</x:v>
       </x:c>
       <x:c s="96" t="str">
-        <x:v>U2 Web Development Environment</x:v>
+        <x:v>MV Integration Server</x:v>
       </x:c>
       <x:c s="97" t="str">
         <x:v>Database &amp; Connectivity</x:v>
@@ -37878,22 +38028,22 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="103" t="str">
-        <x:v>P6024</x:v>
+        <x:v>P6400</x:v>
       </x:c>
       <x:c s="104" t="str">
-        <x:v>MV Integration Server</x:v>
+        <x:v>Aldon - Bundle</x:v>
       </x:c>
       <x:c s="105" t="str">
-        <x:v>Database &amp; Connectivity</x:v>
+        <x:v>Power Systems</x:v>
       </x:c>
       <x:c s="106" t="str">
-        <x:v>MV</x:v>
+        <x:v>IBM i</x:v>
       </x:c>
       <x:c s="107" t="str">
-        <x:v>MV Tools</x:v>
+        <x:v>Aldon</x:v>
       </x:c>
       <x:c s="108" t="str">
-        <x:v>MV Integration Server/U2 Web DE</x:v>
+        <x:v>Other Aldon</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -37904,10 +38054,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="111" t="str">
-        <x:v>P6400</x:v>
+        <x:v>P6401</x:v>
       </x:c>
       <x:c s="112" t="str">
-        <x:v>Aldon - Bundle</x:v>
+        <x:v>Aldon LM Bundled Named</x:v>
       </x:c>
       <x:c s="113" t="str">
         <x:v>Power Systems</x:v>
@@ -37930,10 +38080,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="119" t="str">
-        <x:v>P6401</x:v>
+        <x:v>P6402</x:v>
       </x:c>
       <x:c s="120" t="str">
-        <x:v>Aldon LM Bundled Named</x:v>
+        <x:v>Aldon LM Bundled Concurrent</x:v>
       </x:c>
       <x:c s="121" t="str">
         <x:v>Power Systems</x:v>
@@ -37956,10 +38106,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="127" t="str">
-        <x:v>P6402</x:v>
+        <x:v>P6403</x:v>
       </x:c>
       <x:c s="128" t="str">
-        <x:v>Aldon LM Bundled Concurrent</x:v>
+        <x:v>Aldon LMi Named</x:v>
       </x:c>
       <x:c s="129" t="str">
         <x:v>Power Systems</x:v>
@@ -37971,7 +38121,7 @@
         <x:v>Aldon</x:v>
       </x:c>
       <x:c s="132" t="str">
-        <x:v>Other Aldon</x:v>
+        <x:v>LMi</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -37982,10 +38132,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="135" t="str">
-        <x:v>P6403</x:v>
+        <x:v>P6404</x:v>
       </x:c>
       <x:c s="136" t="str">
-        <x:v>Aldon LMi Named</x:v>
+        <x:v>Aldon LMi Concurrent</x:v>
       </x:c>
       <x:c s="137" t="str">
         <x:v>Power Systems</x:v>
@@ -38008,10 +38158,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="143" t="str">
-        <x:v>P6404</x:v>
+        <x:v>P6418</x:v>
       </x:c>
       <x:c s="144" t="str">
-        <x:v>Aldon LMi Concurrent</x:v>
+        <x:v>Aldon RM</x:v>
       </x:c>
       <x:c s="145" t="str">
         <x:v>Power Systems</x:v>
@@ -38023,7 +38173,7 @@
         <x:v>Aldon</x:v>
       </x:c>
       <x:c s="148" t="str">
-        <x:v>LMi</x:v>
+        <x:v>Other Aldon</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -38034,10 +38184,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="151" t="str">
-        <x:v>P6418</x:v>
+        <x:v>P6421</x:v>
       </x:c>
       <x:c s="152" t="str">
-        <x:v>Aldon RM</x:v>
+        <x:v>Consulting (Implmentation Services)</x:v>
       </x:c>
       <x:c s="153" t="str">
         <x:v>Power Systems</x:v>
@@ -38060,10 +38210,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="159" t="str">
-        <x:v>P6421</x:v>
+        <x:v>P6431</x:v>
       </x:c>
       <x:c s="160" t="str">
-        <x:v>Consulting (Implmentation Services)</x:v>
+        <x:v>Harmonizer</x:v>
       </x:c>
       <x:c s="161" t="str">
         <x:v>Power Systems</x:v>
@@ -38086,10 +38236,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="167" t="str">
-        <x:v>P6431</x:v>
+        <x:v>P6438</x:v>
       </x:c>
       <x:c s="168" t="str">
-        <x:v>Harmonizer</x:v>
+        <x:v>Aldon ALM Solution Service Package</x:v>
       </x:c>
       <x:c s="169" t="str">
         <x:v>Power Systems</x:v>
@@ -38112,22 +38262,22 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="175" t="str">
-        <x:v>P6438</x:v>
+        <x:v>P6802</x:v>
       </x:c>
       <x:c s="176" t="str">
-        <x:v>Aldon ALM Solution Service Package</x:v>
+        <x:v>Shadow - z/Direct</x:v>
       </x:c>
       <x:c s="177" t="str">
-        <x:v>Power Systems</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="178" t="str">
-        <x:v>IBM i</x:v>
+        <x:v>Z Db2 Utilities &amp; Tools</x:v>
       </x:c>
       <x:c s="179" t="str">
-        <x:v>Aldon</x:v>
+        <x:v>Data Virtualization</x:v>
       </x:c>
       <x:c s="180" t="str">
-        <x:v>Other Aldon</x:v>
+        <x:v>Shadow</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
@@ -38138,10 +38288,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="183" t="str">
-        <x:v>P6802</x:v>
+        <x:v>P6811</x:v>
       </x:c>
       <x:c s="184" t="str">
-        <x:v>Shadow - z/Direct</x:v>
+        <x:v>Rocket Data Virtualization Server (DVS)</x:v>
       </x:c>
       <x:c s="185" t="str">
         <x:v>Z Systems</x:v>
@@ -38164,10 +38314,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="191" t="str">
-        <x:v>P6811</x:v>
+        <x:v>P6812</x:v>
       </x:c>
       <x:c s="192" t="str">
-        <x:v>Rocket Data Virtualization Server (DVS)</x:v>
+        <x:v>IBM DVM</x:v>
       </x:c>
       <x:c s="193" t="str">
         <x:v>Z Systems</x:v>
@@ -38179,7 +38329,7 @@
         <x:v>Data Virtualization</x:v>
       </x:c>
       <x:c s="196" t="str">
-        <x:v>Shadow</x:v>
+        <x:v>DVM</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
@@ -38190,10 +38340,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="199" t="str">
-        <x:v>P6812</x:v>
+        <x:v>P6813</x:v>
       </x:c>
       <x:c s="200" t="str">
-        <x:v>IBM DVM</x:v>
+        <x:v>RDA for DXC</x:v>
       </x:c>
       <x:c s="201" t="str">
         <x:v>Z Systems</x:v>
@@ -38216,22 +38366,22 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="207" t="str">
-        <x:v>P6813</x:v>
+        <x:v>P7001</x:v>
       </x:c>
       <x:c s="208" t="str">
-        <x:v>RDA for DXC</x:v>
+        <x:v>Trubiquity TRUEDX</x:v>
       </x:c>
       <x:c s="209" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Database &amp; Connectivity</x:v>
       </x:c>
       <x:c s="210" t="str">
-        <x:v>Z Db2 Utilities &amp; Tools</x:v>
+        <x:v>B2Bi</x:v>
       </x:c>
       <x:c s="211" t="str">
-        <x:v>Data Virtualization</x:v>
+        <x:v>EDX</x:v>
       </x:c>
       <x:c s="212" t="str">
-        <x:v>DVM</x:v>
+        <x:v>EDX</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
@@ -38242,10 +38392,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="215" t="str">
-        <x:v>P7001</x:v>
+        <x:v>P7004</x:v>
       </x:c>
       <x:c s="216" t="str">
-        <x:v>Trubiquity TRUEDX</x:v>
+        <x:v>Trubiquity TRUfusion</x:v>
       </x:c>
       <x:c s="217" t="str">
         <x:v>Database &amp; Connectivity</x:v>
@@ -38254,10 +38404,10 @@
         <x:v>B2Bi</x:v>
       </x:c>
       <x:c s="219" t="str">
-        <x:v>EDX</x:v>
+        <x:v>TRUfusion Enterprise</x:v>
       </x:c>
       <x:c s="220" t="str">
-        <x:v>EDX</x:v>
+        <x:v>TRUfusion Enterprise</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
@@ -38268,10 +38418,10 @@
         <x:v> Hyper Growth</x:v>
       </x:c>
       <x:c s="223" t="str">
-        <x:v>P7004</x:v>
+        <x:v>P7023</x:v>
       </x:c>
       <x:c s="224" t="str">
-        <x:v>Trubiquity TRUfusion</x:v>
+        <x:v>Trubiquity Bundle Service Package</x:v>
       </x:c>
       <x:c s="225" t="str">
         <x:v>Database &amp; Connectivity</x:v>
@@ -38280,36 +38430,36 @@
         <x:v>B2Bi</x:v>
       </x:c>
       <x:c s="227" t="str">
-        <x:v>TRUfusion Enterprise</x:v>
+        <x:v>EDX</x:v>
       </x:c>
       <x:c s="228" t="str">
-        <x:v>TRUfusion Enterprise</x:v>
+        <x:v>EDX</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c s="229" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T2 </x:v>
       </x:c>
       <x:c s="230" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v> Growth</x:v>
       </x:c>
       <x:c s="231" t="str">
-        <x:v>P7023</x:v>
+        <x:v>P1003</x:v>
       </x:c>
       <x:c s="232" t="str">
-        <x:v>Trubiquity Bundle Service Package</x:v>
+        <x:v>IBM QMF MP</x:v>
       </x:c>
       <x:c s="233" t="str">
-        <x:v>Database &amp; Connectivity</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="234" t="str">
-        <x:v>B2Bi</x:v>
+        <x:v>Z Data</x:v>
       </x:c>
       <x:c s="235" t="str">
-        <x:v>EDX</x:v>
+        <x:v>QMF</x:v>
       </x:c>
       <x:c s="236" t="str">
-        <x:v>EDX</x:v>
+        <x:v>QMF</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
@@ -38320,10 +38470,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="239" t="str">
-        <x:v>P1003</x:v>
+        <x:v>P1004</x:v>
       </x:c>
       <x:c s="240" t="str">
-        <x:v>IBM QMF MP</x:v>
+        <x:v>IBM QMF EE</x:v>
       </x:c>
       <x:c s="241" t="str">
         <x:v>Z Systems</x:v>
@@ -38346,10 +38496,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="247" t="str">
-        <x:v>P1004</x:v>
+        <x:v>P1010</x:v>
       </x:c>
       <x:c s="248" t="str">
-        <x:v>IBM QMF EE</x:v>
+        <x:v>IBM QMF z/OS</x:v>
       </x:c>
       <x:c s="249" t="str">
         <x:v>Z Systems</x:v>
@@ -38372,22 +38522,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="255" t="str">
-        <x:v>P1010</x:v>
+        <x:v>P1104</x:v>
       </x:c>
       <x:c s="256" t="str">
-        <x:v>IBM QMF z/OS</x:v>
+        <x:v>IBM Log Analysis Tool</x:v>
       </x:c>
       <x:c s="257" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="258" t="str">
-        <x:v>Z Data</x:v>
+        <x:v>Z Db2 Utilities &amp; Tools</x:v>
       </x:c>
       <x:c s="259" t="str">
-        <x:v>QMF</x:v>
+        <x:v>Db2 Tools</x:v>
       </x:c>
       <x:c s="260" t="str">
-        <x:v>QMF</x:v>
+        <x:v>Db2 Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
@@ -38398,10 +38548,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="263" t="str">
-        <x:v>P1104</x:v>
+        <x:v>P1105</x:v>
       </x:c>
       <x:c s="264" t="str">
-        <x:v>IBM Log Analysis Tool</x:v>
+        <x:v>IBM Query Monitor</x:v>
       </x:c>
       <x:c s="265" t="str">
         <x:v>Z Systems</x:v>
@@ -38424,10 +38574,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="271" t="str">
-        <x:v>P1105</x:v>
+        <x:v>P1106</x:v>
       </x:c>
       <x:c s="272" t="str">
-        <x:v>IBM Query Monitor</x:v>
+        <x:v>IBM Recovery Expert</x:v>
       </x:c>
       <x:c s="273" t="str">
         <x:v>Z Systems</x:v>
@@ -38450,10 +38600,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="279" t="str">
-        <x:v>P1106</x:v>
+        <x:v>P1107</x:v>
       </x:c>
       <x:c s="280" t="str">
-        <x:v>IBM Recovery Expert</x:v>
+        <x:v>IBM Automation Tool</x:v>
       </x:c>
       <x:c s="281" t="str">
         <x:v>Z Systems</x:v>
@@ -38476,22 +38626,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="287" t="str">
-        <x:v>P1107</x:v>
+        <x:v>P1112</x:v>
       </x:c>
       <x:c s="288" t="str">
-        <x:v>IBM Automation Tool</x:v>
+        <x:v>IBM InfoSphere Guardium S-TAP for DB2</x:v>
       </x:c>
       <x:c s="289" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="290" t="str">
-        <x:v>Z Db2 Utilities &amp; Tools</x:v>
+        <x:v>Z Security</x:v>
       </x:c>
       <x:c s="291" t="str">
-        <x:v>Db2 Tools</x:v>
+        <x:v>Z/Guardium</x:v>
       </x:c>
       <x:c s="292" t="str">
-        <x:v>Db2 Tools</x:v>
+        <x:v>Z/Guardium</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
@@ -38502,22 +38652,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="295" t="str">
-        <x:v>P1112</x:v>
+        <x:v>P1137</x:v>
       </x:c>
       <x:c s="296" t="str">
-        <x:v>IBM InfoSphere Guardium S-TAP for DB2</x:v>
+        <x:v>IBM DB2 Admin / Object Compare</x:v>
       </x:c>
       <x:c s="297" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="298" t="str">
-        <x:v>Z Security</x:v>
+        <x:v>Z Db2 Utilities &amp; Tools</x:v>
       </x:c>
       <x:c s="299" t="str">
-        <x:v>Z/Guardium</x:v>
+        <x:v>Db2 Tools</x:v>
       </x:c>
       <x:c s="300" t="str">
-        <x:v>Z/Guardium</x:v>
+        <x:v>Db2 Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
@@ -38528,22 +38678,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="303" t="str">
-        <x:v>P1137</x:v>
+        <x:v>P1138</x:v>
       </x:c>
       <x:c s="304" t="str">
-        <x:v>IBM DB2 Admin / Object Compare</x:v>
+        <x:v>IBM DB2 OMPE/PM Performance Tools</x:v>
       </x:c>
       <x:c s="305" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="306" t="str">
-        <x:v>Z Db2 Utilities &amp; Tools</x:v>
+        <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="307" t="str">
-        <x:v>Db2 Tools</x:v>
+        <x:v>Omegamon z/OS</x:v>
       </x:c>
       <x:c s="308" t="str">
-        <x:v>Db2 Tools</x:v>
+        <x:v>Omegamon z/OS</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
@@ -38554,22 +38704,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="311" t="str">
-        <x:v>P1138</x:v>
+        <x:v>P1140</x:v>
       </x:c>
       <x:c s="312" t="str">
-        <x:v>IBM DB2 OMPE/PM Performance Tools</x:v>
+        <x:v>IBM IMS DB Solution Pack</x:v>
       </x:c>
       <x:c s="313" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="314" t="str">
-        <x:v>Monitoring, Analytics, Performance</x:v>
+        <x:v>IMS </x:v>
       </x:c>
       <x:c s="315" t="str">
-        <x:v>Omegamon z/OS</x:v>
+        <x:v>IMS Tools &amp; Utilities</x:v>
       </x:c>
       <x:c s="316" t="str">
-        <x:v>Omegamon z/OS</x:v>
+        <x:v>IMS Tools &amp; Utilities</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
@@ -38580,10 +38730,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="319" t="str">
-        <x:v>P1140</x:v>
+        <x:v>P1141</x:v>
       </x:c>
       <x:c s="320" t="str">
-        <x:v>IBM IMS DB Solution Pack</x:v>
+        <x:v>IBM IMS High Performance</x:v>
       </x:c>
       <x:c s="321" t="str">
         <x:v>Z Systems</x:v>
@@ -38606,10 +38756,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="327" t="str">
-        <x:v>P1141</x:v>
+        <x:v>P1142</x:v>
       </x:c>
       <x:c s="328" t="str">
-        <x:v>IBM IMS High Performance</x:v>
+        <x:v>IBM IMS DB Solution Other</x:v>
       </x:c>
       <x:c s="329" t="str">
         <x:v>Z Systems</x:v>
@@ -38632,10 +38782,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="335" t="str">
-        <x:v>P1142</x:v>
+        <x:v>P1143</x:v>
       </x:c>
       <x:c s="336" t="str">
-        <x:v>IBM IMS DB Solution Other</x:v>
+        <x:v>IBM IMS Fast Path Solution Pack</x:v>
       </x:c>
       <x:c s="337" t="str">
         <x:v>Z Systems</x:v>
@@ -38658,10 +38808,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="343" t="str">
-        <x:v>P1143</x:v>
+        <x:v>P1146</x:v>
       </x:c>
       <x:c s="344" t="str">
-        <x:v>IBM IMS Fast Path Solution Pack</x:v>
+        <x:v>IBM IMS Recovery Solution</x:v>
       </x:c>
       <x:c s="345" t="str">
         <x:v>Z Systems</x:v>
@@ -38684,10 +38834,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="351" t="str">
-        <x:v>P1146</x:v>
+        <x:v>P1148</x:v>
       </x:c>
       <x:c s="352" t="str">
-        <x:v>IBM IMS Recovery Solution</x:v>
+        <x:v>IBM IMS Queue Control Facility</x:v>
       </x:c>
       <x:c s="353" t="str">
         <x:v>Z Systems</x:v>
@@ -38710,10 +38860,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="359" t="str">
-        <x:v>P1148</x:v>
+        <x:v>P1150</x:v>
       </x:c>
       <x:c s="360" t="str">
-        <x:v>IBM IMS Queue Control Facility</x:v>
+        <x:v>IBM IMS High Performance Sysgen Tools</x:v>
       </x:c>
       <x:c s="361" t="str">
         <x:v>Z Systems</x:v>
@@ -38736,22 +38886,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="367" t="str">
-        <x:v>P1150</x:v>
+        <x:v>P1157</x:v>
       </x:c>
       <x:c s="368" t="str">
-        <x:v>IBM IMS High Performance Sysgen Tools</x:v>
+        <x:v>DB2 Connect</x:v>
       </x:c>
       <x:c s="369" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="370" t="str">
-        <x:v>IMS </x:v>
+        <x:v>Z Data</x:v>
       </x:c>
       <x:c s="371" t="str">
-        <x:v>IMS Tools &amp; Utilities</x:v>
+        <x:v>Db2 Connect</x:v>
       </x:c>
       <x:c s="372" t="str">
-        <x:v>IMS Tools &amp; Utilities</x:v>
+        <x:v>Db2 Connect</x:v>
       </x:c>
     </x:row>
     <x:row r="47">
@@ -38762,22 +38912,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="375" t="str">
-        <x:v>P1157</x:v>
+        <x:v>P1160</x:v>
       </x:c>
       <x:c s="376" t="str">
-        <x:v>DB2 Connect</x:v>
+        <x:v>IBM Db2 Object Compare</x:v>
       </x:c>
       <x:c s="377" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="378" t="str">
-        <x:v>Z Data</x:v>
+        <x:v>Z Db2 Utilities &amp; Tools</x:v>
       </x:c>
       <x:c s="379" t="str">
-        <x:v>Db2 Connect</x:v>
+        <x:v>Db2 Tools</x:v>
       </x:c>
       <x:c s="380" t="str">
-        <x:v>Db2 Connect</x:v>
+        <x:v>Db2 Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="48">
@@ -38788,10 +38938,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="383" t="str">
-        <x:v>P1160</x:v>
+        <x:v>P1161</x:v>
       </x:c>
       <x:c s="384" t="str">
-        <x:v>IBM Db2 Object Compare</x:v>
+        <x:v>IBM Db2 Admin</x:v>
       </x:c>
       <x:c s="385" t="str">
         <x:v>Z Systems</x:v>
@@ -38814,10 +38964,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="391" t="str">
-        <x:v>P1161</x:v>
+        <x:v>P1162</x:v>
       </x:c>
       <x:c s="392" t="str">
-        <x:v>IBM Db2 Admin</x:v>
+        <x:v>Db2 Utilities Suite</x:v>
       </x:c>
       <x:c s="393" t="str">
         <x:v>Z Systems</x:v>
@@ -38826,10 +38976,10 @@
         <x:v>Z Db2 Utilities &amp; Tools</x:v>
       </x:c>
       <x:c s="395" t="str">
-        <x:v>Db2 Tools</x:v>
+        <x:v>Db2 Utilities</x:v>
       </x:c>
       <x:c s="396" t="str">
-        <x:v>Db2 Tools</x:v>
+        <x:v>Db2 Utilities</x:v>
       </x:c>
     </x:row>
     <x:row r="50">
@@ -38840,22 +38990,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="399" t="str">
-        <x:v>P1162</x:v>
+        <x:v>P1163</x:v>
       </x:c>
       <x:c s="400" t="str">
-        <x:v>Db2 Utilities Suite</x:v>
+        <x:v>Craftsman CICS Optimization</x:v>
       </x:c>
       <x:c s="401" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="402" t="str">
-        <x:v>Z Db2 Utilities &amp; Tools</x:v>
+        <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="403" t="str">
-        <x:v>Db2 Utilities 1</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
       <x:c s="404" t="str">
-        <x:v>Db2 Utilities</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="51">
@@ -38866,22 +39016,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="407" t="str">
-        <x:v>P1163</x:v>
+        <x:v>P1164</x:v>
       </x:c>
       <x:c s="408" t="str">
-        <x:v>Craftsman CICS Optimization</x:v>
+        <x:v>IMS Transaction &amp; Access</x:v>
       </x:c>
       <x:c s="409" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="410" t="str">
-        <x:v>Monitoring, Analytics, Performance</x:v>
+        <x:v>IMS </x:v>
       </x:c>
       <x:c s="411" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>IMS Tools &amp; Utilities</x:v>
       </x:c>
       <x:c s="412" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>IMS Performance</x:v>
       </x:c>
     </x:row>
     <x:row r="52">
@@ -38892,10 +39042,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="415" t="str">
-        <x:v>P1164</x:v>
+        <x:v>P1165</x:v>
       </x:c>
       <x:c s="416" t="str">
-        <x:v>IMS Transaction &amp; Access</x:v>
+        <x:v>IMS Problem &amp; Configuration</x:v>
       </x:c>
       <x:c s="417" t="str">
         <x:v>Z Systems</x:v>
@@ -38918,22 +39068,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="423" t="str">
-        <x:v>P1165</x:v>
+        <x:v>P1166</x:v>
       </x:c>
       <x:c s="424" t="str">
-        <x:v>IMS Problem &amp; Configuration</x:v>
+        <x:v>C/Flow &amp; C/Parse</x:v>
       </x:c>
       <x:c s="425" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="426" t="str">
-        <x:v>IMS </x:v>
+        <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="427" t="str">
-        <x:v>IMS Tools &amp; Utilities</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
       <x:c s="428" t="str">
-        <x:v>IMS Performance</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="54">
@@ -38944,22 +39094,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="431" t="str">
-        <x:v>P1166</x:v>
+        <x:v>P1170</x:v>
       </x:c>
       <x:c s="432" t="str">
-        <x:v>C/Flow &amp; C/Parse</x:v>
+        <x:v>IMS Connetion Mgmt &amp; Performance</x:v>
       </x:c>
       <x:c s="433" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="434" t="str">
-        <x:v>Monitoring, Analytics, Performance</x:v>
+        <x:v>IMS </x:v>
       </x:c>
       <x:c s="435" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>IMS Tools &amp; Utilities</x:v>
       </x:c>
       <x:c s="436" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>IMS Performance</x:v>
       </x:c>
     </x:row>
     <x:row r="55">
@@ -38970,22 +39120,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="439" t="str">
-        <x:v>P1170</x:v>
+        <x:v>P1172</x:v>
       </x:c>
       <x:c s="440" t="str">
-        <x:v>IMS Connetion Mgmt &amp; Performance</x:v>
+        <x:v>RMF</x:v>
       </x:c>
       <x:c s="441" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="442" t="str">
-        <x:v>IMS </x:v>
+        <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="443" t="str">
-        <x:v>IMS Tools &amp; Utilities</x:v>
+        <x:v>RMF</x:v>
       </x:c>
       <x:c s="444" t="str">
-        <x:v>IMS Performance</x:v>
+        <x:v>RMF</x:v>
       </x:c>
     </x:row>
     <x:row r="56">
@@ -38996,22 +39146,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="447" t="str">
-        <x:v>P1172</x:v>
+        <x:v>P1173</x:v>
       </x:c>
       <x:c s="448" t="str">
-        <x:v>RMF</x:v>
+        <x:v>HMC</x:v>
       </x:c>
       <x:c s="449" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Power Systems</x:v>
       </x:c>
       <x:c s="450" t="str">
-        <x:v>Monitoring, Analytics, Performance</x:v>
+        <x:v>Power</x:v>
       </x:c>
       <x:c s="451" t="str">
-        <x:v>RMF</x:v>
+        <x:v>Power Cloud</x:v>
       </x:c>
       <x:c s="452" t="str">
-        <x:v>RMF</x:v>
+        <x:v>Power Cloud</x:v>
       </x:c>
     </x:row>
     <x:row r="57">
@@ -39022,22 +39172,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="455" t="str">
-        <x:v>P1173</x:v>
+        <x:v>P1175</x:v>
       </x:c>
       <x:c s="456" t="str">
-        <x:v>HMC</x:v>
+        <x:v>DB2 Management Solution Pack</x:v>
       </x:c>
       <x:c s="457" t="str">
-        <x:v>Power Systems</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="458" t="str">
-        <x:v>Power</x:v>
+        <x:v>Z Db2 Utilities &amp; Tools</x:v>
       </x:c>
       <x:c s="459" t="str">
-        <x:v>Power Cloud</x:v>
+        <x:v>Db2 Tools</x:v>
       </x:c>
       <x:c s="460" t="str">
-        <x:v>Power Cloud</x:v>
+        <x:v>Db2 Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="58">
@@ -39048,22 +39198,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="463" t="str">
-        <x:v>P1175</x:v>
+        <x:v>P1176</x:v>
       </x:c>
       <x:c s="464" t="str">
-        <x:v>DB2 Management Solution Pack</x:v>
+        <x:v>vHMC</x:v>
       </x:c>
       <x:c s="465" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Power Systems</x:v>
       </x:c>
       <x:c s="466" t="str">
-        <x:v>Z Db2 Utilities &amp; Tools</x:v>
+        <x:v>Power</x:v>
       </x:c>
       <x:c s="467" t="str">
-        <x:v>Db2 Tools</x:v>
+        <x:v>Power Cloud</x:v>
       </x:c>
       <x:c s="468" t="str">
-        <x:v>Db2 Tools</x:v>
+        <x:v>Power Cloud</x:v>
       </x:c>
     </x:row>
     <x:row r="59">
@@ -39074,22 +39224,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="471" t="str">
-        <x:v>P1176</x:v>
+        <x:v>P1177</x:v>
       </x:c>
       <x:c s="472" t="str">
-        <x:v>vHMC</x:v>
+        <x:v>EOS Legacy</x:v>
       </x:c>
       <x:c s="473" t="str">
-        <x:v>Power Systems</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="474" t="str">
-        <x:v>Power</x:v>
+        <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="475" t="str">
-        <x:v>Power Cloud</x:v>
+        <x:v>RSD</x:v>
       </x:c>
       <x:c s="476" t="str">
-        <x:v>Power Cloud</x:v>
+        <x:v>RSD</x:v>
       </x:c>
     </x:row>
     <x:row r="60">
@@ -39100,10 +39250,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="479" t="str">
-        <x:v>P1177</x:v>
+        <x:v>P1180</x:v>
       </x:c>
       <x:c s="480" t="str">
-        <x:v>EOS Legacy</x:v>
+        <x:v>EOS 360</x:v>
       </x:c>
       <x:c s="481" t="str">
         <x:v>Z Systems</x:v>
@@ -39126,10 +39276,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="487" t="str">
-        <x:v>P1180</x:v>
+        <x:v>P1181</x:v>
       </x:c>
       <x:c s="488" t="str">
-        <x:v>EOS 360</x:v>
+        <x:v>RSD Consulting</x:v>
       </x:c>
       <x:c s="489" t="str">
         <x:v>Z Systems</x:v>
@@ -39152,10 +39302,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="495" t="str">
-        <x:v>P1181</x:v>
+        <x:v>P1182</x:v>
       </x:c>
       <x:c s="496" t="str">
-        <x:v>RSD Consulting</x:v>
+        <x:v>IBM Z Monitoring</x:v>
       </x:c>
       <x:c s="497" t="str">
         <x:v>Z Systems</x:v>
@@ -39164,10 +39314,10 @@
         <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="499" t="str">
-        <x:v>RSD</x:v>
+        <x:v>Omegamon z/OS</x:v>
       </x:c>
       <x:c s="500" t="str">
-        <x:v>RSD</x:v>
+        <x:v>Omegamon z/OS</x:v>
       </x:c>
     </x:row>
     <x:row r="63">
@@ -39178,10 +39328,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="503" t="str">
-        <x:v>P1182</x:v>
+        <x:v>P1707</x:v>
       </x:c>
       <x:c s="504" t="str">
-        <x:v>IBM Z Monitoring</x:v>
+        <x:v>IBM Oxes</x:v>
       </x:c>
       <x:c s="505" t="str">
         <x:v>Z Systems</x:v>
@@ -39204,10 +39354,10 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="511" t="str">
-        <x:v>P1707</x:v>
+        <x:v>P1709</x:v>
       </x:c>
       <x:c s="512" t="str">
-        <x:v>IBM Oxes</x:v>
+        <x:v>IBM SDSF</x:v>
       </x:c>
       <x:c s="513" t="str">
         <x:v>Z Systems</x:v>
@@ -39216,10 +39366,10 @@
         <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="515" t="str">
-        <x:v>Omegamon z/OS</x:v>
+        <x:v>SDSF</x:v>
       </x:c>
       <x:c s="516" t="str">
-        <x:v>Omegamon z/OS</x:v>
+        <x:v>SDSF</x:v>
       </x:c>
     </x:row>
     <x:row r="65">
@@ -39230,22 +39380,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="519" t="str">
-        <x:v>P1709</x:v>
+        <x:v>P1711</x:v>
       </x:c>
       <x:c s="520" t="str">
-        <x:v>IBM SDSF</x:v>
+        <x:v>IBM PowerSC</x:v>
       </x:c>
       <x:c s="521" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Power Systems</x:v>
       </x:c>
       <x:c s="522" t="str">
-        <x:v>Monitoring, Analytics, Performance</x:v>
+        <x:v>Power</x:v>
       </x:c>
       <x:c s="523" t="str">
-        <x:v>SDSF</x:v>
+        <x:v>Power Security</x:v>
       </x:c>
       <x:c s="524" t="str">
-        <x:v>SDSF</x:v>
+        <x:v>Power SC</x:v>
       </x:c>
     </x:row>
     <x:row r="66">
@@ -39256,22 +39406,22 @@
         <x:v> Growth</x:v>
       </x:c>
       <x:c s="527" t="str">
-        <x:v>P1711</x:v>
+        <x:v>P1712</x:v>
       </x:c>
       <x:c s="528" t="str">
-        <x:v>IBM PowerSC</x:v>
+        <x:v>IBM MFA</x:v>
       </x:c>
       <x:c s="529" t="str">
-        <x:v>Power Systems</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="530" t="str">
-        <x:v>Power</x:v>
+        <x:v>Z Security</x:v>
       </x:c>
       <x:c s="531" t="str">
-        <x:v>Power Security</x:v>
+        <x:v>Z/MFA</x:v>
       </x:c>
       <x:c s="532" t="str">
-        <x:v>Power SC</x:v>
+        <x:v>Z/MFA</x:v>
       </x:c>
     </x:row>
     <x:row r="67">
@@ -40568,7 +40718,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="931" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="932" t="str">
         <x:v>Other Z Data</x:v>
@@ -40698,7 +40848,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="971" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="972" t="str">
         <x:v>Other Z Data</x:v>
@@ -40932,7 +41082,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="1043" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="1044" t="str">
         <x:v>Other Z Data</x:v>
@@ -41478,7 +41628,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="1211" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="1212" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -41530,7 +41680,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="1227" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="1228" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -41556,7 +41706,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="1235" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="1236" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -41582,7 +41732,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="1243" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="1244" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -41608,7 +41758,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="1251" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="1252" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -41634,7 +41784,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="1259" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="1260" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -41660,7 +41810,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="1267" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="1268" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -41686,7 +41836,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="1275" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="1276" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -43350,7 +43500,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="1787" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="1788" t="str">
         <x:v>Other Z Data</x:v>
@@ -43376,7 +43526,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="1795" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="1796" t="str">
         <x:v>Other Z Data</x:v>
@@ -44702,7 +44852,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="2203" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="2204" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -44936,7 +45086,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="2275" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>CorVu</x:v>
       </x:c>
       <x:c s="2276" t="str">
         <x:v>CorVu NG</x:v>
@@ -44962,7 +45112,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="2283" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>CorVu</x:v>
       </x:c>
       <x:c s="2284" t="str">
         <x:v>CorVu NG</x:v>
@@ -46054,7 +46204,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="2619" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="2620" t="str">
         <x:v>Other Z Data</x:v>
@@ -46080,7 +46230,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="2627" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="2628" t="str">
         <x:v>Other Z Data</x:v>
@@ -46106,7 +46256,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="2635" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="2636" t="str">
         <x:v>Other Z Data</x:v>
@@ -46132,7 +46282,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="2643" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="2644" t="str">
         <x:v>Other Z Data</x:v>
@@ -46184,7 +46334,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="2659" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="2660" t="str">
         <x:v>Other Z Data</x:v>
@@ -46444,7 +46594,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="2739" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="2740" t="str">
         <x:v>Other Z Data</x:v>
@@ -47926,7 +48076,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="3195" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="3196" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -47952,7 +48102,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="3203" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="3204" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -47978,7 +48128,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="3211" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="3212" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -48004,7 +48154,7 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="3219" t="str">
-        <x:v>Rocket Modern Experience</x:v>
+        <x:v>LegaSuite</x:v>
       </x:c>
       <x:c s="3220" t="str">
         <x:v>Other LegaSuite</x:v>
@@ -48056,7 +48206,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3235" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>CorVu</x:v>
       </x:c>
       <x:c s="3236" t="str">
         <x:v>CorVu NG</x:v>
@@ -48940,7 +49090,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3507" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="3508" t="str">
         <x:v>Other Z Data</x:v>
@@ -48966,7 +49116,7 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3515" t="str">
-        <x:v>Legacy Maintain Only</x:v>
+        <x:v>Other Z Data</x:v>
       </x:c>
       <x:c s="3516" t="str">
         <x:v>Other Z Data</x:v>
@@ -49214,22 +49364,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3591" t="str">
-        <x:v>P1224</x:v>
+        <x:v>P1200</x:v>
       </x:c>
       <x:c s="3592" t="str">
-        <x:v>IBM CICS Performance Analyzer for z/OS</x:v>
+        <x:v>Uniface Training</x:v>
       </x:c>
       <x:c s="3593" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Database &amp; Connectivity</x:v>
       </x:c>
       <x:c s="3594" t="str">
-        <x:v>Monitoring, Analytics, Performance</x:v>
+        <x:v>Uniface</x:v>
       </x:c>
       <x:c s="3595" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>Uniface</x:v>
       </x:c>
       <x:c s="3596" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>Uniface</x:v>
       </x:c>
     </x:row>
     <x:row r="450">
@@ -49240,22 +49390,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3599" t="str">
-        <x:v>P1225</x:v>
+        <x:v>P1214</x:v>
       </x:c>
       <x:c s="3600" t="str">
-        <x:v>IBM CICS Configuration Manager for z/OS</x:v>
+        <x:v>ConnectiQ Bundle Service Package</x:v>
       </x:c>
       <x:c s="3601" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Power Systems</x:v>
       </x:c>
       <x:c s="3602" t="str">
-        <x:v>Monitoring, Analytics, Performance</x:v>
+        <x:v>IBM i</x:v>
       </x:c>
       <x:c s="3603" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>Rocket Intelligent Legacy Automation</x:v>
       </x:c>
       <x:c s="3604" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>Rocket Process Automation</x:v>
       </x:c>
     </x:row>
     <x:row r="451">
@@ -49266,22 +49416,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3607" t="str">
-        <x:v>P1307</x:v>
+        <x:v>P1224</x:v>
       </x:c>
       <x:c s="3608" t="str">
-        <x:v>IBM Tivoli Advanced VSAM Manager for z/OS</x:v>
+        <x:v>IBM CICS Performance Analyzer for z/OS</x:v>
       </x:c>
       <x:c s="3609" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3610" t="str">
-        <x:v>Z Data</x:v>
+        <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="3611" t="str">
-        <x:v>z/OS Storage</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
       <x:c s="3612" t="str">
-        <x:v>z/OS IBM Storage</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="452">
@@ -49292,22 +49442,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3615" t="str">
-        <x:v>P1321</x:v>
+        <x:v>P1225</x:v>
       </x:c>
       <x:c s="3616" t="str">
-        <x:v>Consulting</x:v>
+        <x:v>IBM CICS Configuration Manager for z/OS</x:v>
       </x:c>
       <x:c s="3617" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3618" t="str">
-        <x:v>Z Data</x:v>
+        <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="3619" t="str">
-        <x:v>z/OS Other</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
       <x:c s="3620" t="str">
-        <x:v>z/OS Other IBM</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="453">
@@ -49318,10 +49468,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3623" t="str">
-        <x:v>P1322</x:v>
+        <x:v>P1307</x:v>
       </x:c>
       <x:c s="3624" t="str">
-        <x:v>Training</x:v>
+        <x:v>IBM Tivoli Advanced VSAM Manager for z/OS</x:v>
       </x:c>
       <x:c s="3625" t="str">
         <x:v>Z Systems</x:v>
@@ -49330,10 +49480,10 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3627" t="str">
-        <x:v>z/OS Other</x:v>
+        <x:v>z/OS Storage</x:v>
       </x:c>
       <x:c s="3628" t="str">
-        <x:v>z/OS Other IBM</x:v>
+        <x:v>z/OS IBM Storage</x:v>
       </x:c>
     </x:row>
     <x:row r="454">
@@ -49344,10 +49494,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3631" t="str">
-        <x:v>P1323</x:v>
+        <x:v>P1321</x:v>
       </x:c>
       <x:c s="3632" t="str">
-        <x:v>Technical Support</x:v>
+        <x:v>Consulting</x:v>
       </x:c>
       <x:c s="3633" t="str">
         <x:v>Z Systems</x:v>
@@ -49370,10 +49520,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3639" t="str">
-        <x:v>P1399</x:v>
+        <x:v>P1322</x:v>
       </x:c>
       <x:c s="3640" t="str">
-        <x:v>Other</x:v>
+        <x:v>Training</x:v>
       </x:c>
       <x:c s="3641" t="str">
         <x:v>Z Systems</x:v>
@@ -49396,22 +49546,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3647" t="str">
-        <x:v>P2712</x:v>
+        <x:v>P1323</x:v>
       </x:c>
       <x:c s="3648" t="str">
-        <x:v>IBM MFA Direct</x:v>
+        <x:v>Technical Support</x:v>
       </x:c>
       <x:c s="3649" t="str">
-        <x:v>Power Systems</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3650" t="str">
-        <x:v>Power</x:v>
+        <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3651" t="str">
-        <x:v>Power Security</x:v>
+        <x:v>z/OS Other</x:v>
       </x:c>
       <x:c s="3652" t="str">
-        <x:v>PowerSC MFA</x:v>
+        <x:v>z/OS Other IBM</x:v>
       </x:c>
     </x:row>
     <x:row r="457">
@@ -49422,10 +49572,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3655" t="str">
-        <x:v>P3004</x:v>
+        <x:v>P1399</x:v>
       </x:c>
       <x:c s="3656" t="str">
-        <x:v>Ascent</x:v>
+        <x:v>Other</x:v>
       </x:c>
       <x:c s="3657" t="str">
         <x:v>Z Systems</x:v>
@@ -49434,10 +49584,10 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3659" t="str">
-        <x:v>AS</x:v>
+        <x:v>z/OS Other</x:v>
       </x:c>
       <x:c s="3660" t="str">
-        <x:v>AS</x:v>
+        <x:v>z/OS Other IBM</x:v>
       </x:c>
     </x:row>
     <x:row r="458">
@@ -49448,22 +49598,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3663" t="str">
-        <x:v>P3021</x:v>
+        <x:v>P2712</x:v>
       </x:c>
       <x:c s="3664" t="str">
-        <x:v>Consulting</x:v>
+        <x:v>IBM MFA Direct</x:v>
       </x:c>
       <x:c s="3665" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3666" t="str">
-        <x:v>Z Data</x:v>
+        <x:v>Z Security</x:v>
       </x:c>
       <x:c s="3667" t="str">
-        <x:v>AS</x:v>
+        <x:v>Z/MFA</x:v>
       </x:c>
       <x:c s="3668" t="str">
-        <x:v>AS</x:v>
+        <x:v>Z/MFA</x:v>
       </x:c>
     </x:row>
     <x:row r="459">
@@ -49474,10 +49624,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3671" t="str">
-        <x:v>P3022</x:v>
+        <x:v>P3004</x:v>
       </x:c>
       <x:c s="3672" t="str">
-        <x:v>Training</x:v>
+        <x:v>Ascent</x:v>
       </x:c>
       <x:c s="3673" t="str">
         <x:v>Z Systems</x:v>
@@ -49500,10 +49650,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3679" t="str">
-        <x:v>P3023</x:v>
+        <x:v>P3021</x:v>
       </x:c>
       <x:c s="3680" t="str">
-        <x:v>Technical Support</x:v>
+        <x:v>Consulting</x:v>
       </x:c>
       <x:c s="3681" t="str">
         <x:v>Z Systems</x:v>
@@ -49526,10 +49676,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3687" t="str">
-        <x:v>P3200</x:v>
+        <x:v>P3022</x:v>
       </x:c>
       <x:c s="3688" t="str">
-        <x:v>Mainstar</x:v>
+        <x:v>Training</x:v>
       </x:c>
       <x:c s="3689" t="str">
         <x:v>Z Systems</x:v>
@@ -49538,10 +49688,10 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3691" t="str">
-        <x:v>z/OS Storage</x:v>
+        <x:v>AS</x:v>
       </x:c>
       <x:c s="3692" t="str">
-        <x:v>z/OS Rocket Storage</x:v>
+        <x:v>AS</x:v>
       </x:c>
     </x:row>
     <x:row r="462">
@@ -49552,10 +49702,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3695" t="str">
-        <x:v>P3206</x:v>
+        <x:v>P3023</x:v>
       </x:c>
       <x:c s="3696" t="str">
-        <x:v>ICR/RDR (IMS)</x:v>
+        <x:v>Technical Support</x:v>
       </x:c>
       <x:c s="3697" t="str">
         <x:v>Z Systems</x:v>
@@ -49564,10 +49714,10 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3699" t="str">
-        <x:v>z/OS Other</x:v>
+        <x:v>AS</x:v>
       </x:c>
       <x:c s="3700" t="str">
-        <x:v>Mainstar z/OS Other</x:v>
+        <x:v>AS</x:v>
       </x:c>
     </x:row>
     <x:row r="463">
@@ -49578,10 +49728,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3703" t="str">
-        <x:v>P3215</x:v>
+        <x:v>P3200</x:v>
       </x:c>
       <x:c s="3704" t="str">
-        <x:v>CDS Expert License</x:v>
+        <x:v>Mainstar</x:v>
       </x:c>
       <x:c s="3705" t="str">
         <x:v>Z Systems</x:v>
@@ -49590,10 +49740,10 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3707" t="str">
-        <x:v>z/OS Other</x:v>
+        <x:v>z/OS Storage</x:v>
       </x:c>
       <x:c s="3708" t="str">
-        <x:v>Mainstar z/OS Other</x:v>
+        <x:v>z/OS Rocket Storage</x:v>
       </x:c>
     </x:row>
     <x:row r="464">
@@ -49604,10 +49754,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3711" t="str">
-        <x:v>P3217</x:v>
+        <x:v>P3206</x:v>
       </x:c>
       <x:c s="3712" t="str">
-        <x:v>EMC Reseller</x:v>
+        <x:v>ICR/RDR (IMS)</x:v>
       </x:c>
       <x:c s="3713" t="str">
         <x:v>Z Systems</x:v>
@@ -49630,10 +49780,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3719" t="str">
-        <x:v>P3223</x:v>
+        <x:v>P3215</x:v>
       </x:c>
       <x:c s="3720" t="str">
-        <x:v>Technical Support</x:v>
+        <x:v>CDS Expert License</x:v>
       </x:c>
       <x:c s="3721" t="str">
         <x:v>Z Systems</x:v>
@@ -49656,10 +49806,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3727" t="str">
-        <x:v>P3251</x:v>
+        <x:v>P3217</x:v>
       </x:c>
       <x:c s="3728" t="str">
-        <x:v>IBM DB xFer</x:v>
+        <x:v>EMC Reseller</x:v>
       </x:c>
       <x:c s="3729" t="str">
         <x:v>Z Systems</x:v>
@@ -49682,22 +49832,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3735" t="str">
-        <x:v>P3411</x:v>
+        <x:v>P3223</x:v>
       </x:c>
       <x:c s="3736" t="str">
-        <x:v>Rocket Process Integration (Rocket API)</x:v>
+        <x:v>Technical Support</x:v>
       </x:c>
       <x:c s="3737" t="str">
-        <x:v>Power Systems</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3738" t="str">
-        <x:v>IBM i</x:v>
+        <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3739" t="str">
-        <x:v>Rocket Intelligent Legacy Automation</x:v>
+        <x:v>z/OS Other</x:v>
       </x:c>
       <x:c s="3740" t="str">
-        <x:v>Rocket Process Integration</x:v>
+        <x:v>Mainstar z/OS Other</x:v>
       </x:c>
     </x:row>
     <x:row r="468">
@@ -49708,22 +49858,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3743" t="str">
-        <x:v>P3412</x:v>
+        <x:v>P3251</x:v>
       </x:c>
       <x:c s="3744" t="str">
-        <x:v>Rocket Process Insights</x:v>
+        <x:v>IBM DB xFer</x:v>
       </x:c>
       <x:c s="3745" t="str">
-        <x:v>Power Systems</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3746" t="str">
-        <x:v>IBM i</x:v>
+        <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3747" t="str">
-        <x:v>Rocket Intelligent Legacy Automation</x:v>
+        <x:v>z/OS Other</x:v>
       </x:c>
       <x:c s="3748" t="str">
-        <x:v>Rocket Process Insights</x:v>
+        <x:v>Mainstar z/OS Other</x:v>
       </x:c>
     </x:row>
     <x:row r="469">
@@ -49734,10 +49884,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3751" t="str">
-        <x:v>P3430</x:v>
+        <x:v>P3411</x:v>
       </x:c>
       <x:c s="3752" t="str">
-        <x:v>Rocket MFA (IBM i Edition)</x:v>
+        <x:v>Rocket Process Integration (Rocket API)</x:v>
       </x:c>
       <x:c s="3753" t="str">
         <x:v>Power Systems</x:v>
@@ -49746,10 +49896,10 @@
         <x:v>IBM i</x:v>
       </x:c>
       <x:c s="3755" t="str">
-        <x:v>Security</x:v>
+        <x:v>Rocket Intelligent Legacy Automation</x:v>
       </x:c>
       <x:c s="3756" t="str">
-        <x:v>Rocket MFA</x:v>
+        <x:v>Rocket Process Integration</x:v>
       </x:c>
     </x:row>
     <x:row r="470">
@@ -49760,22 +49910,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3759" t="str">
-        <x:v>P3500</x:v>
+        <x:v>P3412</x:v>
       </x:c>
       <x:c s="3760" t="str">
-        <x:v>CorVu - Bundle</x:v>
+        <x:v>Rocket Process Insights</x:v>
       </x:c>
       <x:c s="3761" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Power Systems</x:v>
       </x:c>
       <x:c s="3762" t="str">
-        <x:v>Z Data</x:v>
+        <x:v>IBM i</x:v>
       </x:c>
       <x:c s="3763" t="str">
-        <x:v>CorVu</x:v>
+        <x:v>Rocket Intelligent Legacy Automation</x:v>
       </x:c>
       <x:c s="3764" t="str">
-        <x:v>CorVu Classic</x:v>
+        <x:v>Rocket Process Insights</x:v>
       </x:c>
     </x:row>
     <x:row r="471">
@@ -49786,22 +49936,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3767" t="str">
-        <x:v>P3510</x:v>
+        <x:v>P3430</x:v>
       </x:c>
       <x:c s="3768" t="str">
-        <x:v>CorVu Products</x:v>
+        <x:v>Rocket MFA (IBM i Edition)</x:v>
       </x:c>
       <x:c s="3769" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Power Systems</x:v>
       </x:c>
       <x:c s="3770" t="str">
-        <x:v>Z Data</x:v>
+        <x:v>IBM i</x:v>
       </x:c>
       <x:c s="3771" t="str">
-        <x:v>CorVu</x:v>
+        <x:v>Security</x:v>
       </x:c>
       <x:c s="3772" t="str">
-        <x:v>CorVu Classic</x:v>
+        <x:v>Rocket MFA</x:v>
       </x:c>
     </x:row>
     <x:row r="472">
@@ -49812,10 +49962,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3775" t="str">
-        <x:v>P3515</x:v>
+        <x:v>P3500</x:v>
       </x:c>
       <x:c s="3776" t="str">
-        <x:v>Rocket Discover IBM ASL</x:v>
+        <x:v>CorVu - Bundle</x:v>
       </x:c>
       <x:c s="3777" t="str">
         <x:v>Z Systems</x:v>
@@ -49838,10 +49988,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3783" t="str">
-        <x:v>P3523</x:v>
+        <x:v>P3510</x:v>
       </x:c>
       <x:c s="3784" t="str">
-        <x:v>Technical Support</x:v>
+        <x:v>CorVu Products</x:v>
       </x:c>
       <x:c s="3785" t="str">
         <x:v>Z Systems</x:v>
@@ -49864,10 +50014,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3791" t="str">
-        <x:v>P3999</x:v>
+        <x:v>P3515</x:v>
       </x:c>
       <x:c s="3792" t="str">
-        <x:v>CorVu</x:v>
+        <x:v>Rocket Discover IBM ASL</x:v>
       </x:c>
       <x:c s="3793" t="str">
         <x:v>Z Systems</x:v>
@@ -49890,22 +50040,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3799" t="str">
-        <x:v>P6000</x:v>
+        <x:v>P3523</x:v>
       </x:c>
       <x:c s="3800" t="str">
-        <x:v>U2 - Bundle</x:v>
+        <x:v>Technical Support</x:v>
       </x:c>
       <x:c s="3801" t="str">
-        <x:v>Database &amp; Connectivity</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3802" t="str">
-        <x:v>MV</x:v>
+        <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3803" t="str">
-        <x:v>MV Tools</x:v>
+        <x:v>CorVu</x:v>
       </x:c>
       <x:c s="3804" t="str">
-        <x:v>U2 DB Tools</x:v>
+        <x:v>CorVu Classic</x:v>
       </x:c>
     </x:row>
     <x:row r="476">
@@ -49916,10 +50066,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3807" t="str">
-        <x:v>P6200</x:v>
+        <x:v>P3999</x:v>
       </x:c>
       <x:c s="3808" t="str">
-        <x:v>Windsor</x:v>
+        <x:v>CorVu</x:v>
       </x:c>
       <x:c s="3809" t="str">
         <x:v>Z Systems</x:v>
@@ -49928,10 +50078,10 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3811" t="str">
-        <x:v>z/OS Storage</x:v>
+        <x:v>CorVu</x:v>
       </x:c>
       <x:c s="3812" t="str">
-        <x:v>z/OS Rocket Storage</x:v>
+        <x:v>CorVu Classic</x:v>
       </x:c>
     </x:row>
     <x:row r="477">
@@ -49942,22 +50092,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3815" t="str">
-        <x:v>P6221</x:v>
+        <x:v>P6000</x:v>
       </x:c>
       <x:c s="3816" t="str">
-        <x:v>Consulting</x:v>
+        <x:v>U2 - Bundle</x:v>
       </x:c>
       <x:c s="3817" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Database &amp; Connectivity</x:v>
       </x:c>
       <x:c s="3818" t="str">
-        <x:v>Z Data</x:v>
+        <x:v>MV</x:v>
       </x:c>
       <x:c s="3819" t="str">
-        <x:v>z/OS Other</x:v>
+        <x:v>MV Tools</x:v>
       </x:c>
       <x:c s="3820" t="str">
-        <x:v>Mainstar z/OS Other</x:v>
+        <x:v>U2 DB Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="478">
@@ -49968,10 +50118,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3823" t="str">
-        <x:v>P6223</x:v>
+        <x:v>P6200</x:v>
       </x:c>
       <x:c s="3824" t="str">
-        <x:v>Technical Support</x:v>
+        <x:v>Windsor</x:v>
       </x:c>
       <x:c s="3825" t="str">
         <x:v>Z Systems</x:v>
@@ -49980,10 +50130,10 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3827" t="str">
-        <x:v>z/OS Other</x:v>
+        <x:v>z/OS Storage</x:v>
       </x:c>
       <x:c s="3828" t="str">
-        <x:v>Mainstar z/OS Other</x:v>
+        <x:v>z/OS Rocket Storage</x:v>
       </x:c>
     </x:row>
     <x:row r="479">
@@ -49994,10 +50144,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3831" t="str">
-        <x:v>P6306</x:v>
+        <x:v>P6221</x:v>
       </x:c>
       <x:c s="3832" t="str">
-        <x:v>Rocket MXI</x:v>
+        <x:v>Consulting</x:v>
       </x:c>
       <x:c s="3833" t="str">
         <x:v>Z Systems</x:v>
@@ -50020,22 +50170,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3839" t="str">
-        <x:v>P6371</x:v>
+        <x:v>P6223</x:v>
       </x:c>
       <x:c s="3840" t="str">
-        <x:v>Sirius Consulting</x:v>
+        <x:v>Technical Support</x:v>
       </x:c>
       <x:c s="3841" t="str">
-        <x:v>Database &amp; Connectivity</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3842" t="str">
-        <x:v>NoSQL</x:v>
+        <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3843" t="str">
-        <x:v>M204</x:v>
+        <x:v>z/OS Other</x:v>
       </x:c>
       <x:c s="3844" t="str">
-        <x:v>M204</x:v>
+        <x:v>Mainstar z/OS Other</x:v>
       </x:c>
     </x:row>
     <x:row r="481">
@@ -50046,10 +50196,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3847" t="str">
-        <x:v>P6700</x:v>
+        <x:v>P6306</x:v>
       </x:c>
       <x:c s="3848" t="str">
-        <x:v>OpenTech Bundle</x:v>
+        <x:v>Rocket MXI</x:v>
       </x:c>
       <x:c s="3849" t="str">
         <x:v>Z Systems</x:v>
@@ -50058,10 +50208,10 @@
         <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3851" t="str">
-        <x:v>z/OS Storage</x:v>
+        <x:v>z/OS Other</x:v>
       </x:c>
       <x:c s="3852" t="str">
-        <x:v>z/OS Rocket Storage</x:v>
+        <x:v>Mainstar z/OS Other</x:v>
       </x:c>
     </x:row>
     <x:row r="482">
@@ -50072,22 +50222,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3855" t="str">
-        <x:v>P6705</x:v>
+        <x:v>P6371</x:v>
       </x:c>
       <x:c s="3856" t="str">
-        <x:v>P2P Sync</x:v>
+        <x:v>Sirius Consulting</x:v>
       </x:c>
       <x:c s="3857" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Database &amp; Connectivity</x:v>
       </x:c>
       <x:c s="3858" t="str">
-        <x:v>Z Data</x:v>
+        <x:v>NoSQL</x:v>
       </x:c>
       <x:c s="3859" t="str">
-        <x:v>z/OS Storage</x:v>
+        <x:v>M204</x:v>
       </x:c>
       <x:c s="3860" t="str">
-        <x:v>z/OS Rocket Storage</x:v>
+        <x:v>M204</x:v>
       </x:c>
     </x:row>
     <x:row r="483">
@@ -50098,10 +50248,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3863" t="str">
-        <x:v>P6706</x:v>
+        <x:v>P6700</x:v>
       </x:c>
       <x:c s="3864" t="str">
-        <x:v>Tape Copy / Virtual Data Recovery</x:v>
+        <x:v>OpenTech Bundle</x:v>
       </x:c>
       <x:c s="3865" t="str">
         <x:v>Z Systems</x:v>
@@ -50124,10 +50274,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3871" t="str">
-        <x:v>P6708</x:v>
+        <x:v>P6705</x:v>
       </x:c>
       <x:c s="3872" t="str">
-        <x:v>Tape Reclaim</x:v>
+        <x:v>P2P Sync</x:v>
       </x:c>
       <x:c s="3873" t="str">
         <x:v>Z Systems</x:v>
@@ -50150,10 +50300,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3879" t="str">
-        <x:v>P6711</x:v>
+        <x:v>P6706</x:v>
       </x:c>
       <x:c s="3880" t="str">
-        <x:v>Virtual Data Recovery - Limited</x:v>
+        <x:v>Tape Copy / Virtual Data Recovery</x:v>
       </x:c>
       <x:c s="3881" t="str">
         <x:v>Z Systems</x:v>
@@ -50176,22 +50326,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3887" t="str">
-        <x:v>P6800</x:v>
+        <x:v>P6708</x:v>
       </x:c>
       <x:c s="3888" t="str">
-        <x:v>Shadow Bundle</x:v>
+        <x:v>Tape Reclaim</x:v>
       </x:c>
       <x:c s="3889" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3890" t="str">
-        <x:v>Z Db2 Utilities &amp; Tools</x:v>
+        <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3891" t="str">
-        <x:v>Data Virtualization</x:v>
+        <x:v>z/OS Storage</x:v>
       </x:c>
       <x:c s="3892" t="str">
-        <x:v>Shadow</x:v>
+        <x:v>z/OS Rocket Storage</x:v>
       </x:c>
     </x:row>
     <x:row r="487">
@@ -50202,22 +50352,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3895" t="str">
-        <x:v>P7000</x:v>
+        <x:v>P6711</x:v>
       </x:c>
       <x:c s="3896" t="str">
-        <x:v>Trubiquity - Bundle</x:v>
+        <x:v>Virtual Data Recovery - Limited</x:v>
       </x:c>
       <x:c s="3897" t="str">
-        <x:v>Database &amp; Connectivity</x:v>
+        <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3898" t="str">
-        <x:v>B2Bi</x:v>
+        <x:v>Z Data</x:v>
       </x:c>
       <x:c s="3899" t="str">
-        <x:v>Other Trubiquity</x:v>
+        <x:v>z/OS Storage</x:v>
       </x:c>
       <x:c s="3900" t="str">
-        <x:v>Other Trubiquity</x:v>
+        <x:v>z/OS Rocket Storage</x:v>
       </x:c>
     </x:row>
     <x:row r="488">
@@ -50228,22 +50378,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3903" t="str">
-        <x:v>P9001</x:v>
+        <x:v>P6800</x:v>
       </x:c>
       <x:c s="3904" t="str">
-        <x:v>IBM CICS Optimization Solution Pack</x:v>
+        <x:v>Shadow Bundle</x:v>
       </x:c>
       <x:c s="3905" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3906" t="str">
-        <x:v>Monitoring, Analytics, Performance</x:v>
+        <x:v>Z Db2 Utilities &amp; Tools</x:v>
       </x:c>
       <x:c s="3907" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>Data Virtualization</x:v>
       </x:c>
       <x:c s="3908" t="str">
-        <x:v>CICS Tools</x:v>
+        <x:v>Shadow</x:v>
       </x:c>
     </x:row>
     <x:row r="489">
@@ -50254,22 +50404,22 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3911" t="str">
-        <x:v>P9002</x:v>
+        <x:v>P7000</x:v>
       </x:c>
       <x:c s="3912" t="str">
-        <x:v>IBM Service Management Suite V1</x:v>
+        <x:v>Trubiquity - Bundle</x:v>
       </x:c>
       <x:c s="3913" t="str">
-        <x:v>Z Systems</x:v>
+        <x:v>Database &amp; Connectivity</x:v>
       </x:c>
       <x:c s="3914" t="str">
-        <x:v>Monitoring, Analytics, Performance</x:v>
+        <x:v>B2Bi</x:v>
       </x:c>
       <x:c s="3915" t="str">
-        <x:v>Omegamon z/OS</x:v>
+        <x:v>Other Trubiquity</x:v>
       </x:c>
       <x:c s="3916" t="str">
-        <x:v>Omegamon z/OS</x:v>
+        <x:v>Other Trubiquity</x:v>
       </x:c>
     </x:row>
     <x:row r="490">
@@ -50280,10 +50430,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3919" t="str">
-        <x:v>P9003</x:v>
+        <x:v>P9001</x:v>
       </x:c>
       <x:c s="3920" t="str">
-        <x:v>IBM Service Management Suite V2</x:v>
+        <x:v>IBM CICS Optimization Solution Pack</x:v>
       </x:c>
       <x:c s="3921" t="str">
         <x:v>Z Systems</x:v>
@@ -50292,10 +50442,10 @@
         <x:v>Monitoring, Analytics, Performance</x:v>
       </x:c>
       <x:c s="3923" t="str">
-        <x:v>Omegamon z/OS</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
       <x:c s="3924" t="str">
-        <x:v>Omegamon z/OS</x:v>
+        <x:v>CICS Tools</x:v>
       </x:c>
     </x:row>
     <x:row r="491">
@@ -50306,10 +50456,10 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3927" t="str">
-        <x:v>P9004</x:v>
+        <x:v>P9002</x:v>
       </x:c>
       <x:c s="3928" t="str">
-        <x:v>IBM Z Monitoring Suite</x:v>
+        <x:v>IBM Service Management Suite V1</x:v>
       </x:c>
       <x:c s="3929" t="str">
         <x:v>Z Systems</x:v>
@@ -50321,7 +50471,7 @@
         <x:v>Omegamon z/OS</x:v>
       </x:c>
       <x:c s="3932" t="str">
-        <x:v>IBM Z Monitoring Suite</x:v>
+        <x:v>Omegamon z/OS</x:v>
       </x:c>
     </x:row>
     <x:row r="492">
@@ -50332,25 +50482,77 @@
         <x:v>Unassigned</x:v>
       </x:c>
       <x:c s="3935" t="str">
-        <x:v>P9999</x:v>
+        <x:v>P9003</x:v>
       </x:c>
       <x:c s="3936" t="str">
-        <x:v>Other Product</x:v>
+        <x:v>IBM Service Management Suite V2</x:v>
       </x:c>
       <x:c s="3937" t="str">
         <x:v>Z Systems</x:v>
       </x:c>
       <x:c s="3938" t="str">
+        <x:v>Monitoring, Analytics, Performance</x:v>
+      </x:c>
+      <x:c s="3939" t="str">
+        <x:v>Omegamon z/OS</x:v>
+      </x:c>
+      <x:c s="3940" t="str">
+        <x:v>Omegamon z/OS</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="493">
+      <x:c s="3941" t="str">
+        <x:v>Tn</x:v>
+      </x:c>
+      <x:c s="3942" t="str">
+        <x:v>Unassigned</x:v>
+      </x:c>
+      <x:c s="3943" t="str">
+        <x:v>P9004</x:v>
+      </x:c>
+      <x:c s="3944" t="str">
+        <x:v>IBM Z Monitoring Suite</x:v>
+      </x:c>
+      <x:c s="3945" t="str">
+        <x:v>Z Systems</x:v>
+      </x:c>
+      <x:c s="3946" t="str">
+        <x:v>Monitoring, Analytics, Performance</x:v>
+      </x:c>
+      <x:c s="3947" t="str">
+        <x:v>Omegamon z-OS</x:v>
+      </x:c>
+      <x:c s="3948" t="str">
+        <x:v>IBM Z Monitoring Suite</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="494">
+      <x:c s="3949" t="str">
+        <x:v>Tn</x:v>
+      </x:c>
+      <x:c s="3950" t="str">
+        <x:v>Unassigned</x:v>
+      </x:c>
+      <x:c s="3951" t="str">
+        <x:v>P9999</x:v>
+      </x:c>
+      <x:c s="3952" t="str">
+        <x:v>Other Product</x:v>
+      </x:c>
+      <x:c s="3953" t="str">
+        <x:v>Z Systems</x:v>
+      </x:c>
+      <x:c s="3954" t="str">
         <x:v>Z Data</x:v>
       </x:c>
-      <x:c s="3939" t="str">
-        <x:v>Legacy Maintain Only</x:v>
-      </x:c>
-      <x:c s="3940" t="str">
+      <x:c s="3955" t="str">
+        <x:v>Other Z Data</x:v>
+      </x:c>
+      <x:c s="3956" t="str">
         <x:v>Other Z Data</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:H492"/>
+  <x:autoFilter ref="A1:H494"/>
 </x:worksheet>
 </file>
--- a/WebApplication1/Template/Tier Hierarchy.xlsx
+++ b/WebApplication1/Template/Tier Hierarchy.xlsx
@@ -46586,10 +46586,10 @@
     </x:row>
     <x:row r="2">
       <x:c s="13" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="14" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="15" t="str">
         <x:v>P1171</x:v>
@@ -46612,10 +46612,10 @@
     </x:row>
     <x:row r="3">
       <x:c s="21" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="22" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="23" t="str">
         <x:v>P1174</x:v>
@@ -46638,10 +46638,10 @@
     </x:row>
     <x:row r="4">
       <x:c s="29" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="30" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="31" t="str">
         <x:v>P1179</x:v>
@@ -46664,10 +46664,10 @@
     </x:row>
     <x:row r="5">
       <x:c s="37" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="38" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="39" t="str">
         <x:v>P1186</x:v>
@@ -46690,10 +46690,10 @@
     </x:row>
     <x:row r="6">
       <x:c s="45" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="46" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="47" t="str">
         <x:v>P1188</x:v>
@@ -46716,10 +46716,10 @@
     </x:row>
     <x:row r="7">
       <x:c s="53" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="54" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="55" t="str">
         <x:v>P1192</x:v>
@@ -46742,10 +46742,10 @@
     </x:row>
     <x:row r="8">
       <x:c s="61" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="62" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="63" t="str">
         <x:v>P1193</x:v>
@@ -46768,10 +46768,10 @@
     </x:row>
     <x:row r="9">
       <x:c s="69" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="70" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="71" t="str">
         <x:v>P1306</x:v>
@@ -46794,10 +46794,10 @@
     </x:row>
     <x:row r="10">
       <x:c s="77" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="78" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="79" t="str">
         <x:v>P1712</x:v>
@@ -46820,10 +46820,10 @@
     </x:row>
     <x:row r="11">
       <x:c s="85" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="86" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="87" t="str">
         <x:v>P3409</x:v>
@@ -46846,10 +46846,10 @@
     </x:row>
     <x:row r="12">
       <x:c s="93" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="94" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="95" t="str">
         <x:v>P6006</x:v>
@@ -46872,10 +46872,10 @@
     </x:row>
     <x:row r="13">
       <x:c s="101" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="102" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="103" t="str">
         <x:v>P6024</x:v>
@@ -46898,10 +46898,10 @@
     </x:row>
     <x:row r="14">
       <x:c s="109" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="110" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="111" t="str">
         <x:v>P6400</x:v>
@@ -46924,10 +46924,10 @@
     </x:row>
     <x:row r="15">
       <x:c s="117" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="118" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="119" t="str">
         <x:v>P6401</x:v>
@@ -46950,10 +46950,10 @@
     </x:row>
     <x:row r="16">
       <x:c s="125" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="126" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="127" t="str">
         <x:v>P6402</x:v>
@@ -46976,10 +46976,10 @@
     </x:row>
     <x:row r="17">
       <x:c s="133" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="134" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="135" t="str">
         <x:v>P6403</x:v>
@@ -47002,10 +47002,10 @@
     </x:row>
     <x:row r="18">
       <x:c s="141" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="142" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="143" t="str">
         <x:v>P6404</x:v>
@@ -47028,10 +47028,10 @@
     </x:row>
     <x:row r="19">
       <x:c s="149" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="150" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="151" t="str">
         <x:v>P6418</x:v>
@@ -47054,10 +47054,10 @@
     </x:row>
     <x:row r="20">
       <x:c s="157" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="158" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="159" t="str">
         <x:v>P6421</x:v>
@@ -47080,10 +47080,10 @@
     </x:row>
     <x:row r="21">
       <x:c s="165" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="166" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="167" t="str">
         <x:v>P6431</x:v>
@@ -47106,10 +47106,10 @@
     </x:row>
     <x:row r="22">
       <x:c s="173" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="174" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="175" t="str">
         <x:v>P6438</x:v>
@@ -47132,10 +47132,10 @@
     </x:row>
     <x:row r="23">
       <x:c s="181" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="182" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="183" t="str">
         <x:v>P6802</x:v>
@@ -47158,10 +47158,10 @@
     </x:row>
     <x:row r="24">
       <x:c s="189" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="190" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="191" t="str">
         <x:v>P6811</x:v>
@@ -47184,10 +47184,10 @@
     </x:row>
     <x:row r="25">
       <x:c s="197" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="198" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="199" t="str">
         <x:v>P6812</x:v>
@@ -47210,10 +47210,10 @@
     </x:row>
     <x:row r="26">
       <x:c s="205" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="206" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="207" t="str">
         <x:v>P6813</x:v>
@@ -47236,10 +47236,10 @@
     </x:row>
     <x:row r="27">
       <x:c s="213" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="214" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="215" t="str">
         <x:v>P7001</x:v>
@@ -47262,10 +47262,10 @@
     </x:row>
     <x:row r="28">
       <x:c s="221" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="222" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="223" t="str">
         <x:v>P7004</x:v>
@@ -47288,10 +47288,10 @@
     </x:row>
     <x:row r="29">
       <x:c s="229" t="str">
-        <x:v>T1 </x:v>
+        <x:v>T1</x:v>
       </x:c>
       <x:c s="230" t="str">
-        <x:v> Hyper Growth</x:v>
+        <x:v>Hyper Growth</x:v>
       </x:c>
       <x:c s="231" t="str">
         <x:v>P7023</x:v>
@@ -47314,10 +47314,10 @@
     </x:row>
     <x:row r="30">
       <x:c s="237" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="238" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="239" t="str">
         <x:v>P1003</x:v>
@@ -47340,10 +47340,10 @@
     </x:row>
     <x:row r="31">
       <x:c s="245" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="246" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="247" t="str">
         <x:v>P1004</x:v>
@@ -47366,10 +47366,10 @@
     </x:row>
     <x:row r="32">
       <x:c s="253" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="254" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="255" t="str">
         <x:v>P1010</x:v>
@@ -47392,10 +47392,10 @@
     </x:row>
     <x:row r="33">
       <x:c s="261" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="262" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="263" t="str">
         <x:v>P1104</x:v>
@@ -47418,10 +47418,10 @@
     </x:row>
     <x:row r="34">
       <x:c s="269" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="270" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="271" t="str">
         <x:v>P1105</x:v>
@@ -47444,10 +47444,10 @@
     </x:row>
     <x:row r="35">
       <x:c s="277" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="278" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="279" t="str">
         <x:v>P1106</x:v>
@@ -47470,10 +47470,10 @@
     </x:row>
     <x:row r="36">
       <x:c s="285" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="286" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="287" t="str">
         <x:v>P1107</x:v>
@@ -47496,10 +47496,10 @@
     </x:row>
     <x:row r="37">
       <x:c s="293" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="294" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="295" t="str">
         <x:v>P1112</x:v>
@@ -47522,10 +47522,10 @@
     </x:row>
     <x:row r="38">
       <x:c s="301" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="302" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="303" t="str">
         <x:v>P1137</x:v>
@@ -47548,10 +47548,10 @@
     </x:row>
     <x:row r="39">
       <x:c s="309" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="310" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="311" t="str">
         <x:v>P1138</x:v>
@@ -47574,10 +47574,10 @@
     </x:row>
     <x:row r="40">
       <x:c s="317" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="318" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="319" t="str">
         <x:v>P1140</x:v>
@@ -47600,10 +47600,10 @@
     </x:row>
     <x:row r="41">
       <x:c s="325" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="326" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="327" t="str">
         <x:v>P1141</x:v>
@@ -47626,10 +47626,10 @@
     </x:row>
     <x:row r="42">
       <x:c s="333" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="334" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="335" t="str">
         <x:v>P1142</x:v>
@@ -47652,10 +47652,10 @@
     </x:row>
     <x:row r="43">
       <x:c s="341" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="342" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="343" t="str">
         <x:v>P1143</x:v>
@@ -47678,10 +47678,10 @@
     </x:row>
     <x:row r="44">
       <x:c s="349" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="350" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="351" t="str">
         <x:v>P1146</x:v>
@@ -47704,10 +47704,10 @@
     </x:row>
     <x:row r="45">
       <x:c s="357" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="358" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="359" t="str">
         <x:v>P1148</x:v>
@@ -47730,10 +47730,10 @@
     </x:row>
     <x:row r="46">
       <x:c s="365" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="366" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="367" t="str">
         <x:v>P1150</x:v>
@@ -47756,10 +47756,10 @@
     </x:row>
     <x:row r="47">
       <x:c s="373" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="374" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="375" t="str">
         <x:v>P1157</x:v>
@@ -47782,10 +47782,10 @@
     </x:row>
     <x:row r="48">
       <x:c s="381" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="382" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="383" t="str">
         <x:v>P1160</x:v>
@@ -47808,10 +47808,10 @@
     </x:row>
     <x:row r="49">
       <x:c s="389" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="390" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="391" t="str">
         <x:v>P1161</x:v>
@@ -47834,10 +47834,10 @@
     </x:row>
     <x:row r="50">
       <x:c s="397" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="398" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="399" t="str">
         <x:v>P1162</x:v>
@@ -47860,10 +47860,10 @@
     </x:row>
     <x:row r="51">
       <x:c s="405" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="406" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="407" t="str">
         <x:v>P1163</x:v>
@@ -47886,10 +47886,10 @@
     </x:row>
     <x:row r="52">
       <x:c s="413" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="414" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="415" t="str">
         <x:v>P1164</x:v>
@@ -47912,10 +47912,10 @@
     </x:row>
     <x:row r="53">
       <x:c s="421" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="422" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="423" t="str">
         <x:v>P1165</x:v>
@@ -47938,10 +47938,10 @@
     </x:row>
     <x:row r="54">
       <x:c s="429" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="430" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="431" t="str">
         <x:v>P1166</x:v>
@@ -47964,10 +47964,10 @@
     </x:row>
     <x:row r="55">
       <x:c s="437" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="438" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="439" t="str">
         <x:v>P1170</x:v>
@@ -47990,10 +47990,10 @@
     </x:row>
     <x:row r="56">
       <x:c s="445" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="446" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="447" t="str">
         <x:v>P1172</x:v>
@@ -48016,10 +48016,10 @@
     </x:row>
     <x:row r="57">
       <x:c s="453" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="454" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="455" t="str">
         <x:v>P1173</x:v>
@@ -48042,10 +48042,10 @@
     </x:row>
     <x:row r="58">
       <x:c s="461" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="462" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="463" t="str">
         <x:v>P1175</x:v>
@@ -48068,10 +48068,10 @@
     </x:row>
     <x:row r="59">
       <x:c s="469" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="470" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="471" t="str">
         <x:v>P1176</x:v>
@@ -48094,10 +48094,10 @@
     </x:row>
     <x:row r="60">
       <x:c s="477" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="478" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="479" t="str">
         <x:v>P1177</x:v>
@@ -48120,10 +48120,10 @@
     </x:row>
     <x:row r="61">
       <x:c s="485" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="486" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="487" t="str">
         <x:v>P1180</x:v>
@@ -48146,10 +48146,10 @@
     </x:row>
     <x:row r="62">
       <x:c s="493" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="494" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="495" t="str">
         <x:v>P1181</x:v>
@@ -48172,10 +48172,10 @@
     </x:row>
     <x:row r="63">
       <x:c s="501" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="502" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="503" t="str">
         <x:v>P1182</x:v>
@@ -48198,10 +48198,10 @@
     </x:row>
     <x:row r="64">
       <x:c s="509" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="510" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="511" t="str">
         <x:v>P1707</x:v>
@@ -48224,10 +48224,10 @@
     </x:row>
     <x:row r="65">
       <x:c s="517" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="518" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="519" t="str">
         <x:v>P1709</x:v>
@@ -48250,10 +48250,10 @@
     </x:row>
     <x:row r="66">
       <x:c s="525" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="526" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="527" t="str">
         <x:v>P1711</x:v>
@@ -48276,10 +48276,10 @@
     </x:row>
     <x:row r="67">
       <x:c s="533" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="534" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="535" t="str">
         <x:v>P1713</x:v>
@@ -48302,10 +48302,10 @@
     </x:row>
     <x:row r="68">
       <x:c s="541" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="542" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="543" t="str">
         <x:v>P1714</x:v>
@@ -48328,10 +48328,10 @@
     </x:row>
     <x:row r="69">
       <x:c s="549" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="550" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="551" t="str">
         <x:v>P1715</x:v>
@@ -48354,10 +48354,10 @@
     </x:row>
     <x:row r="70">
       <x:c s="557" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="558" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="559" t="str">
         <x:v>P1716</x:v>
@@ -48380,10 +48380,10 @@
     </x:row>
     <x:row r="71">
       <x:c s="565" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="566" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="567" t="str">
         <x:v>P1718</x:v>
@@ -48406,10 +48406,10 @@
     </x:row>
     <x:row r="72">
       <x:c s="573" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="574" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="575" t="str">
         <x:v>P1719</x:v>
@@ -48432,10 +48432,10 @@
     </x:row>
     <x:row r="73">
       <x:c s="581" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="582" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="583" t="str">
         <x:v>P1727</x:v>
@@ -48458,10 +48458,10 @@
     </x:row>
     <x:row r="74">
       <x:c s="589" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="590" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="591" t="str">
         <x:v>P1729</x:v>
@@ -48484,10 +48484,10 @@
     </x:row>
     <x:row r="75">
       <x:c s="597" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="598" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="599" t="str">
         <x:v>P3201</x:v>
@@ -48510,10 +48510,10 @@
     </x:row>
     <x:row r="76">
       <x:c s="605" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="606" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="607" t="str">
         <x:v>P3231</x:v>
@@ -48536,10 +48536,10 @@
     </x:row>
     <x:row r="77">
       <x:c s="613" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="614" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="615" t="str">
         <x:v>P3300</x:v>
@@ -48562,10 +48562,10 @@
     </x:row>
     <x:row r="78">
       <x:c s="621" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="622" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="623" t="str">
         <x:v>P3301</x:v>
@@ -48588,10 +48588,10 @@
     </x:row>
     <x:row r="79">
       <x:c s="629" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="630" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="631" t="str">
         <x:v>P3302</x:v>
@@ -48614,10 +48614,10 @@
     </x:row>
     <x:row r="80">
       <x:c s="637" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="638" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="639" t="str">
         <x:v>P3305</x:v>
@@ -48640,10 +48640,10 @@
     </x:row>
     <x:row r="81">
       <x:c s="645" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="646" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="647" t="str">
         <x:v>P3306</x:v>
@@ -48666,10 +48666,10 @@
     </x:row>
     <x:row r="82">
       <x:c s="653" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="654" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="655" t="str">
         <x:v>P3321</x:v>
@@ -48692,10 +48692,10 @@
     </x:row>
     <x:row r="83">
       <x:c s="661" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="662" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="663" t="str">
         <x:v>P3322</x:v>
@@ -48718,10 +48718,10 @@
     </x:row>
     <x:row r="84">
       <x:c s="669" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="670" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="671" t="str">
         <x:v>P3323</x:v>
@@ -48744,10 +48744,10 @@
     </x:row>
     <x:row r="85">
       <x:c s="677" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="678" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="679" t="str">
         <x:v>P3324</x:v>
@@ -48770,10 +48770,10 @@
     </x:row>
     <x:row r="86">
       <x:c s="685" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="686" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="687" t="str">
         <x:v>P3399</x:v>
@@ -48796,10 +48796,10 @@
     </x:row>
     <x:row r="87">
       <x:c s="693" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="694" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="695" t="str">
         <x:v>P3408</x:v>
@@ -48822,10 +48822,10 @@
     </x:row>
     <x:row r="88">
       <x:c s="701" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="702" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="703" t="str">
         <x:v>P6001</x:v>
@@ -48848,10 +48848,10 @@
     </x:row>
     <x:row r="89">
       <x:c s="709" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="710" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="711" t="str">
         <x:v>P6002</x:v>
@@ -48874,10 +48874,10 @@
     </x:row>
     <x:row r="90">
       <x:c s="717" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="718" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="719" t="str">
         <x:v>P6003</x:v>
@@ -48900,10 +48900,10 @@
     </x:row>
     <x:row r="91">
       <x:c s="725" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="726" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="727" t="str">
         <x:v>P6004</x:v>
@@ -48926,10 +48926,10 @@
     </x:row>
     <x:row r="92">
       <x:c s="733" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="734" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="735" t="str">
         <x:v>P6011</x:v>
@@ -48952,10 +48952,10 @@
     </x:row>
     <x:row r="93">
       <x:c s="741" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="742" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="743" t="str">
         <x:v>P6021</x:v>
@@ -48978,10 +48978,10 @@
     </x:row>
     <x:row r="94">
       <x:c s="749" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="750" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="751" t="str">
         <x:v>P6022</x:v>
@@ -49004,10 +49004,10 @@
     </x:row>
     <x:row r="95">
       <x:c s="757" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="758" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="759" t="str">
         <x:v>P6025</x:v>
@@ -49030,10 +49030,10 @@
     </x:row>
     <x:row r="96">
       <x:c s="765" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="766" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="767" t="str">
         <x:v>P6099</x:v>
@@ -49056,10 +49056,10 @@
     </x:row>
     <x:row r="97">
       <x:c s="773" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="774" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="775" t="str">
         <x:v>P6113</x:v>
@@ -49082,10 +49082,10 @@
     </x:row>
     <x:row r="98">
       <x:c s="781" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="782" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="783" t="str">
         <x:v>P6121</x:v>
@@ -49108,10 +49108,10 @@
     </x:row>
     <x:row r="99">
       <x:c s="789" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="790" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="791" t="str">
         <x:v>P6122</x:v>
@@ -49134,10 +49134,10 @@
     </x:row>
     <x:row r="100">
       <x:c s="797" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="798" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="799" t="str">
         <x:v>P6123</x:v>
@@ -49160,10 +49160,10 @@
     </x:row>
     <x:row r="101">
       <x:c s="805" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="806" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="807" t="str">
         <x:v>P6202</x:v>
@@ -49186,10 +49186,10 @@
     </x:row>
     <x:row r="102">
       <x:c s="813" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="814" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="815" t="str">
         <x:v>P6405</x:v>
@@ -49212,10 +49212,10 @@
     </x:row>
     <x:row r="103">
       <x:c s="821" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="822" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="823" t="str">
         <x:v>P6406</x:v>
@@ -49238,10 +49238,10 @@
     </x:row>
     <x:row r="104">
       <x:c s="829" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="830" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="831" t="str">
         <x:v>P6433</x:v>
@@ -49264,10 +49264,10 @@
     </x:row>
     <x:row r="105">
       <x:c s="837" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="838" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="839" t="str">
         <x:v>P6434</x:v>
@@ -49290,10 +49290,10 @@
     </x:row>
     <x:row r="106">
       <x:c s="845" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="846" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="847" t="str">
         <x:v>P6435</x:v>
@@ -49316,10 +49316,10 @@
     </x:row>
     <x:row r="107">
       <x:c s="853" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="854" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="855" t="str">
         <x:v>P6501</x:v>
@@ -49342,10 +49342,10 @@
     </x:row>
     <x:row r="108">
       <x:c s="861" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="862" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="863" t="str">
         <x:v>P6502</x:v>
@@ -49368,10 +49368,10 @@
     </x:row>
     <x:row r="109">
       <x:c s="869" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="870" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="871" t="str">
         <x:v>P6521</x:v>
@@ -49394,10 +49394,10 @@
     </x:row>
     <x:row r="110">
       <x:c s="877" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="878" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="879" t="str">
         <x:v>P6522</x:v>
@@ -49420,10 +49420,10 @@
     </x:row>
     <x:row r="111">
       <x:c s="885" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="886" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="887" t="str">
         <x:v>P6524</x:v>
@@ -49446,10 +49446,10 @@
     </x:row>
     <x:row r="112">
       <x:c s="893" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="894" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="895" t="str">
         <x:v>P6599</x:v>
@@ -49472,10 +49472,10 @@
     </x:row>
     <x:row r="113">
       <x:c s="901" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="902" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="903" t="str">
         <x:v>P7002</x:v>
@@ -49498,10 +49498,10 @@
     </x:row>
     <x:row r="114">
       <x:c s="909" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="910" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="911" t="str">
         <x:v>P7021</x:v>
@@ -49524,10 +49524,10 @@
     </x:row>
     <x:row r="115">
       <x:c s="917" t="str">
-        <x:v>T2 </x:v>
+        <x:v>T2</x:v>
       </x:c>
       <x:c s="918" t="str">
-        <x:v> Growth</x:v>
+        <x:v>Growth</x:v>
       </x:c>
       <x:c s="919" t="str">
         <x:v>P7022</x:v>
@@ -49550,10 +49550,10 @@
     </x:row>
     <x:row r="116">
       <x:c s="925" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="926" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="927" t="str">
         <x:v>P1005</x:v>
@@ -49576,10 +49576,10 @@
     </x:row>
     <x:row r="117">
       <x:c s="933" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="934" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="935" t="str">
         <x:v>P1012</x:v>
@@ -49602,10 +49602,10 @@
     </x:row>
     <x:row r="118">
       <x:c s="941" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="942" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="943" t="str">
         <x:v>P1111</x:v>
@@ -49628,10 +49628,10 @@
     </x:row>
     <x:row r="119">
       <x:c s="949" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="950" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="951" t="str">
         <x:v>P1114</x:v>
@@ -49654,10 +49654,10 @@
     </x:row>
     <x:row r="120">
       <x:c s="957" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="958" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="959" t="str">
         <x:v>P1115</x:v>
@@ -49680,10 +49680,10 @@
     </x:row>
     <x:row r="121">
       <x:c s="965" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="966" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="967" t="str">
         <x:v>P1122</x:v>
@@ -49706,10 +49706,10 @@
     </x:row>
     <x:row r="122">
       <x:c s="973" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="974" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="975" t="str">
         <x:v>P1126</x:v>
@@ -49732,10 +49732,10 @@
     </x:row>
     <x:row r="123">
       <x:c s="981" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="982" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="983" t="str">
         <x:v>P1131</x:v>
@@ -49758,10 +49758,10 @@
     </x:row>
     <x:row r="124">
       <x:c s="989" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="990" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="991" t="str">
         <x:v>P1136</x:v>
@@ -49784,10 +49784,10 @@
     </x:row>
     <x:row r="125">
       <x:c s="997" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="998" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="999" t="str">
         <x:v>P1145</x:v>
@@ -49810,10 +49810,10 @@
     </x:row>
     <x:row r="126">
       <x:c s="1005" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1006" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1007" t="str">
         <x:v>P1149</x:v>
@@ -49836,10 +49836,10 @@
     </x:row>
     <x:row r="127">
       <x:c s="1013" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1014" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1015" t="str">
         <x:v>P1152</x:v>
@@ -49862,10 +49862,10 @@
     </x:row>
     <x:row r="128">
       <x:c s="1021" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1022" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1023" t="str">
         <x:v>P1178</x:v>
@@ -49888,10 +49888,10 @@
     </x:row>
     <x:row r="129">
       <x:c s="1029" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1030" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1031" t="str">
         <x:v>P1185</x:v>
@@ -49914,10 +49914,10 @@
     </x:row>
     <x:row r="130">
       <x:c s="1037" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1038" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1039" t="str">
         <x:v>P1199</x:v>
@@ -49940,10 +49940,10 @@
     </x:row>
     <x:row r="131">
       <x:c s="1045" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1046" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1047" t="str">
         <x:v>P1310</x:v>
@@ -49966,10 +49966,10 @@
     </x:row>
     <x:row r="132">
       <x:c s="1053" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1054" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1055" t="str">
         <x:v>P1325</x:v>
@@ -49992,10 +49992,10 @@
     </x:row>
     <x:row r="133">
       <x:c s="1061" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1062" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1063" t="str">
         <x:v>P1704</x:v>
@@ -50018,10 +50018,10 @@
     </x:row>
     <x:row r="134">
       <x:c s="1069" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1070" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1071" t="str">
         <x:v>P1717</x:v>
@@ -50044,10 +50044,10 @@
     </x:row>
     <x:row r="135">
       <x:c s="1077" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1078" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1079" t="str">
         <x:v>P3101</x:v>
@@ -50070,10 +50070,10 @@
     </x:row>
     <x:row r="136">
       <x:c s="1085" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1086" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1087" t="str">
         <x:v>P3102</x:v>
@@ -50096,10 +50096,10 @@
     </x:row>
     <x:row r="137">
       <x:c s="1093" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1094" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1095" t="str">
         <x:v>P3107</x:v>
@@ -50122,10 +50122,10 @@
     </x:row>
     <x:row r="138">
       <x:c s="1101" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1102" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1103" t="str">
         <x:v>P3108</x:v>
@@ -50148,10 +50148,10 @@
     </x:row>
     <x:row r="139">
       <x:c s="1109" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1110" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1111" t="str">
         <x:v>P3121</x:v>
@@ -50174,10 +50174,10 @@
     </x:row>
     <x:row r="140">
       <x:c s="1117" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1118" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1119" t="str">
         <x:v>P3122</x:v>
@@ -50200,10 +50200,10 @@
     </x:row>
     <x:row r="141">
       <x:c s="1125" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1126" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1127" t="str">
         <x:v>P3123</x:v>
@@ -50226,10 +50226,10 @@
     </x:row>
     <x:row r="142">
       <x:c s="1133" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1134" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1135" t="str">
         <x:v>P3199</x:v>
@@ -50252,10 +50252,10 @@
     </x:row>
     <x:row r="143">
       <x:c s="1141" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1142" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1143" t="str">
         <x:v>P3202</x:v>
@@ -50278,10 +50278,10 @@
     </x:row>
     <x:row r="144">
       <x:c s="1149" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1150" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1151" t="str">
         <x:v>P3203</x:v>
@@ -50304,10 +50304,10 @@
     </x:row>
     <x:row r="145">
       <x:c s="1157" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1158" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1159" t="str">
         <x:v>P3204</x:v>
@@ -50330,10 +50330,10 @@
     </x:row>
     <x:row r="146">
       <x:c s="1165" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1166" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1167" t="str">
         <x:v>P3205</x:v>
@@ -50356,10 +50356,10 @@
     </x:row>
     <x:row r="147">
       <x:c s="1173" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1174" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1175" t="str">
         <x:v>P3208</x:v>
@@ -50382,10 +50382,10 @@
     </x:row>
     <x:row r="148">
       <x:c s="1181" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1182" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1183" t="str">
         <x:v>P3209</x:v>
@@ -50408,10 +50408,10 @@
     </x:row>
     <x:row r="149">
       <x:c s="1189" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1190" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1191" t="str">
         <x:v>P3233</x:v>
@@ -50434,10 +50434,10 @@
     </x:row>
     <x:row r="150">
       <x:c s="1197" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1198" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1199" t="str">
         <x:v>P3235</x:v>
@@ -50460,10 +50460,10 @@
     </x:row>
     <x:row r="151">
       <x:c s="1205" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1206" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1207" t="str">
         <x:v>P3400</x:v>
@@ -50486,10 +50486,10 @@
     </x:row>
     <x:row r="152">
       <x:c s="1213" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1214" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1215" t="str">
         <x:v>P3401</x:v>
@@ -50512,10 +50512,10 @@
     </x:row>
     <x:row r="153">
       <x:c s="1221" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1222" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1223" t="str">
         <x:v>P3402</x:v>
@@ -50538,10 +50538,10 @@
     </x:row>
     <x:row r="154">
       <x:c s="1229" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1230" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1231" t="str">
         <x:v>P3405</x:v>
@@ -50564,10 +50564,10 @@
     </x:row>
     <x:row r="155">
       <x:c s="1237" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1238" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1239" t="str">
         <x:v>P3421</x:v>
@@ -50590,10 +50590,10 @@
     </x:row>
     <x:row r="156">
       <x:c s="1245" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1246" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1247" t="str">
         <x:v>P3422</x:v>
@@ -50616,10 +50616,10 @@
     </x:row>
     <x:row r="157">
       <x:c s="1253" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1254" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1255" t="str">
         <x:v>P3423</x:v>
@@ -50642,10 +50642,10 @@
     </x:row>
     <x:row r="158">
       <x:c s="1261" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1262" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1263" t="str">
         <x:v>P3425</x:v>
@@ -50668,10 +50668,10 @@
     </x:row>
     <x:row r="159">
       <x:c s="1269" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1270" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1271" t="str">
         <x:v>P3499</x:v>
@@ -50694,10 +50694,10 @@
     </x:row>
     <x:row r="160">
       <x:c s="1277" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1278" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1279" t="str">
         <x:v>P6005</x:v>
@@ -50720,10 +50720,10 @@
     </x:row>
     <x:row r="161">
       <x:c s="1285" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1286" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1287" t="str">
         <x:v>P6007</x:v>
@@ -50746,10 +50746,10 @@
     </x:row>
     <x:row r="162">
       <x:c s="1293" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1294" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1295" t="str">
         <x:v>P6008</x:v>
@@ -50772,10 +50772,10 @@
     </x:row>
     <x:row r="163">
       <x:c s="1301" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1302" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1303" t="str">
         <x:v>P6009</x:v>
@@ -50798,10 +50798,10 @@
     </x:row>
     <x:row r="164">
       <x:c s="1309" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1310" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1311" t="str">
         <x:v>P6012</x:v>
@@ -50824,10 +50824,10 @@
     </x:row>
     <x:row r="165">
       <x:c s="1317" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1318" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1319" t="str">
         <x:v>P6013</x:v>
@@ -50850,10 +50850,10 @@
     </x:row>
     <x:row r="166">
       <x:c s="1325" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1326" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1327" t="str">
         <x:v>P6014</x:v>
@@ -50876,10 +50876,10 @@
     </x:row>
     <x:row r="167">
       <x:c s="1333" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1334" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1335" t="str">
         <x:v>P6100</x:v>
@@ -50902,10 +50902,10 @@
     </x:row>
     <x:row r="168">
       <x:c s="1341" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1342" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1343" t="str">
         <x:v>P6101</x:v>
@@ -50928,10 +50928,10 @@
     </x:row>
     <x:row r="169">
       <x:c s="1349" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1350" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1351" t="str">
         <x:v>P6102</x:v>
@@ -50954,10 +50954,10 @@
     </x:row>
     <x:row r="170">
       <x:c s="1357" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1358" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1359" t="str">
         <x:v>P6103</x:v>
@@ -50980,10 +50980,10 @@
     </x:row>
     <x:row r="171">
       <x:c s="1365" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1366" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1367" t="str">
         <x:v>P6104</x:v>
@@ -51006,10 +51006,10 @@
     </x:row>
     <x:row r="172">
       <x:c s="1373" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1374" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1375" t="str">
         <x:v>P6105</x:v>
@@ -51032,10 +51032,10 @@
     </x:row>
     <x:row r="173">
       <x:c s="1381" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1382" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1383" t="str">
         <x:v>P6106</x:v>
@@ -51058,10 +51058,10 @@
     </x:row>
     <x:row r="174">
       <x:c s="1389" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1390" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1391" t="str">
         <x:v>P6107</x:v>
@@ -51084,10 +51084,10 @@
     </x:row>
     <x:row r="175">
       <x:c s="1397" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1398" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1399" t="str">
         <x:v>P6108</x:v>
@@ -51110,10 +51110,10 @@
     </x:row>
     <x:row r="176">
       <x:c s="1405" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1406" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1407" t="str">
         <x:v>P6109</x:v>
@@ -51136,10 +51136,10 @@
     </x:row>
     <x:row r="177">
       <x:c s="1413" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1414" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1415" t="str">
         <x:v>P6110</x:v>
@@ -51162,10 +51162,10 @@
     </x:row>
     <x:row r="178">
       <x:c s="1421" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1422" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1423" t="str">
         <x:v>P6111</x:v>
@@ -51188,10 +51188,10 @@
     </x:row>
     <x:row r="179">
       <x:c s="1429" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1430" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1431" t="str">
         <x:v>P6112</x:v>
@@ -51214,10 +51214,10 @@
     </x:row>
     <x:row r="180">
       <x:c s="1437" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1438" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1439" t="str">
         <x:v>P6199</x:v>
@@ -51240,10 +51240,10 @@
     </x:row>
     <x:row r="181">
       <x:c s="1445" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1446" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1447" t="str">
         <x:v>P6301</x:v>
@@ -51266,10 +51266,10 @@
     </x:row>
     <x:row r="182">
       <x:c s="1453" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1454" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1455" t="str">
         <x:v>P6302</x:v>
@@ -51292,10 +51292,10 @@
     </x:row>
     <x:row r="183">
       <x:c s="1461" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1462" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1463" t="str">
         <x:v>P6303</x:v>
@@ -51318,10 +51318,10 @@
     </x:row>
     <x:row r="184">
       <x:c s="1469" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1470" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1471" t="str">
         <x:v>P6305</x:v>
@@ -51344,10 +51344,10 @@
     </x:row>
     <x:row r="185">
       <x:c s="1477" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1478" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1479" t="str">
         <x:v>P6307</x:v>
@@ -51370,10 +51370,10 @@
     </x:row>
     <x:row r="186">
       <x:c s="1485" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1486" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1487" t="str">
         <x:v>P6308</x:v>
@@ -51396,10 +51396,10 @@
     </x:row>
     <x:row r="187">
       <x:c s="1493" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1494" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1495" t="str">
         <x:v>P6309</x:v>
@@ -51422,10 +51422,10 @@
     </x:row>
     <x:row r="188">
       <x:c s="1501" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1502" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1503" t="str">
         <x:v>P6310</x:v>
@@ -51448,10 +51448,10 @@
     </x:row>
     <x:row r="189">
       <x:c s="1509" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1510" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1511" t="str">
         <x:v>P6311</x:v>
@@ -51474,10 +51474,10 @@
     </x:row>
     <x:row r="190">
       <x:c s="1517" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1518" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1519" t="str">
         <x:v>P6321</x:v>
@@ -51500,10 +51500,10 @@
     </x:row>
     <x:row r="191">
       <x:c s="1525" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1526" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1527" t="str">
         <x:v>P6322</x:v>
@@ -51526,10 +51526,10 @@
     </x:row>
     <x:row r="192">
       <x:c s="1533" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1534" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1535" t="str">
         <x:v>P6323</x:v>
@@ -51552,10 +51552,10 @@
     </x:row>
     <x:row r="193">
       <x:c s="1541" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1542" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1543" t="str">
         <x:v>P6325</x:v>
@@ -51578,10 +51578,10 @@
     </x:row>
     <x:row r="194">
       <x:c s="1549" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1550" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1551" t="str">
         <x:v>P6326</x:v>
@@ -51604,10 +51604,10 @@
     </x:row>
     <x:row r="195">
       <x:c s="1557" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1558" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1559" t="str">
         <x:v>P6327</x:v>
@@ -51630,10 +51630,10 @@
     </x:row>
     <x:row r="196">
       <x:c s="1565" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1566" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1567" t="str">
         <x:v>P6331</x:v>
@@ -51656,10 +51656,10 @@
     </x:row>
     <x:row r="197">
       <x:c s="1573" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1574" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1575" t="str">
         <x:v>P6332</x:v>
@@ -51682,10 +51682,10 @@
     </x:row>
     <x:row r="198">
       <x:c s="1581" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1582" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1583" t="str">
         <x:v>P6333</x:v>
@@ -51708,10 +51708,10 @@
     </x:row>
     <x:row r="199">
       <x:c s="1589" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1590" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1591" t="str">
         <x:v>P6351</x:v>
@@ -51734,10 +51734,10 @@
     </x:row>
     <x:row r="200">
       <x:c s="1597" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1598" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1599" t="str">
         <x:v>P6399</x:v>
@@ -51760,10 +51760,10 @@
     </x:row>
     <x:row r="201">
       <x:c s="1605" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1606" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1607" t="str">
         <x:v>P6407</x:v>
@@ -51786,10 +51786,10 @@
     </x:row>
     <x:row r="202">
       <x:c s="1613" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1614" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1615" t="str">
         <x:v>P6408</x:v>
@@ -51812,10 +51812,10 @@
     </x:row>
     <x:row r="203">
       <x:c s="1621" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1622" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1623" t="str">
         <x:v>P6409</x:v>
@@ -51838,10 +51838,10 @@
     </x:row>
     <x:row r="204">
       <x:c s="1629" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1630" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1631" t="str">
         <x:v>P6410</x:v>
@@ -51864,10 +51864,10 @@
     </x:row>
     <x:row r="205">
       <x:c s="1637" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1638" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1639" t="str">
         <x:v>P6411</x:v>
@@ -51890,10 +51890,10 @@
     </x:row>
     <x:row r="206">
       <x:c s="1645" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1646" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1647" t="str">
         <x:v>P6412</x:v>
@@ -51916,10 +51916,10 @@
     </x:row>
     <x:row r="207">
       <x:c s="1653" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1654" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1655" t="str">
         <x:v>P6413</x:v>
@@ -51942,10 +51942,10 @@
     </x:row>
     <x:row r="208">
       <x:c s="1661" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1662" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1663" t="str">
         <x:v>P6432</x:v>
@@ -51968,10 +51968,10 @@
     </x:row>
     <x:row r="209">
       <x:c s="1669" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1670" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1671" t="str">
         <x:v>P6437</x:v>
@@ -51994,10 +51994,10 @@
     </x:row>
     <x:row r="210">
       <x:c s="1677" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1678" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1679" t="str">
         <x:v>P6703</x:v>
@@ -52020,10 +52020,10 @@
     </x:row>
     <x:row r="211">
       <x:c s="1685" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1686" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1687" t="str">
         <x:v>P6707</x:v>
@@ -52046,10 +52046,10 @@
     </x:row>
     <x:row r="212">
       <x:c s="1693" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1694" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1695" t="str">
         <x:v>P6801</x:v>
@@ -52072,10 +52072,10 @@
     </x:row>
     <x:row r="213">
       <x:c s="1701" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1702" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1703" t="str">
         <x:v>P6804</x:v>
@@ -52098,10 +52098,10 @@
     </x:row>
     <x:row r="214">
       <x:c s="1709" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1710" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1711" t="str">
         <x:v>P6822</x:v>
@@ -52124,10 +52124,10 @@
     </x:row>
     <x:row r="215">
       <x:c s="1717" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1718" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1719" t="str">
         <x:v>P6901</x:v>
@@ -52150,10 +52150,10 @@
     </x:row>
     <x:row r="216">
       <x:c s="1725" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1726" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1727" t="str">
         <x:v>P6902</x:v>
@@ -52176,10 +52176,10 @@
     </x:row>
     <x:row r="217">
       <x:c s="1733" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1734" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1735" t="str">
         <x:v>P6903</x:v>
@@ -52202,10 +52202,10 @@
     </x:row>
     <x:row r="218">
       <x:c s="1741" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1742" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1743" t="str">
         <x:v>P6904</x:v>
@@ -52228,10 +52228,10 @@
     </x:row>
     <x:row r="219">
       <x:c s="1749" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1750" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1751" t="str">
         <x:v>P6999</x:v>
@@ -52254,10 +52254,10 @@
     </x:row>
     <x:row r="220">
       <x:c s="1757" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1758" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1759" t="str">
         <x:v>P7003</x:v>
@@ -52280,10 +52280,10 @@
     </x:row>
     <x:row r="221">
       <x:c s="1765" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1766" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1767" t="str">
         <x:v>P7005</x:v>
@@ -52306,10 +52306,10 @@
     </x:row>
     <x:row r="222">
       <x:c s="1773" t="str">
-        <x:v>T3 </x:v>
+        <x:v>T3</x:v>
       </x:c>
       <x:c s="1774" t="str">
-        <x:v> Value</x:v>
+        <x:v>Value</x:v>
       </x:c>
       <x:c s="1775" t="str">
         <x:v>P7008</x:v>
@@ -52332,10 +52332,10 @@
     </x:row>
     <x:row r="223">
       <x:c s="1781" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1782" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1783" t="str">
         <x:v>P1007</x:v>
@@ -52358,10 +52358,10 @@
     </x:row>
     <x:row r="224">
       <x:c s="1789" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1790" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1791" t="str">
         <x:v>P1011</x:v>
@@ -52384,10 +52384,10 @@
     </x:row>
     <x:row r="225">
       <x:c s="1797" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1798" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1799" t="str">
         <x:v>P1113</x:v>
@@ -52410,10 +52410,10 @@
     </x:row>
     <x:row r="226">
       <x:c s="1805" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1806" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1807" t="str">
         <x:v>P1144</x:v>
@@ -52436,10 +52436,10 @@
     </x:row>
     <x:row r="227">
       <x:c s="1813" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1814" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1815" t="str">
         <x:v>P1147</x:v>
@@ -52462,10 +52462,10 @@
     </x:row>
     <x:row r="228">
       <x:c s="1821" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1822" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1823" t="str">
         <x:v>P1151</x:v>
@@ -52488,10 +52488,10 @@
     </x:row>
     <x:row r="229">
       <x:c s="1829" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1830" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1831" t="str">
         <x:v>P1153</x:v>
@@ -52514,10 +52514,10 @@
     </x:row>
     <x:row r="230">
       <x:c s="1837" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1838" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1839" t="str">
         <x:v>P1154</x:v>
@@ -52540,10 +52540,10 @@
     </x:row>
     <x:row r="231">
       <x:c s="1845" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1846" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1847" t="str">
         <x:v>P1156</x:v>
@@ -52566,10 +52566,10 @@
     </x:row>
     <x:row r="232">
       <x:c s="1853" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1854" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1855" t="str">
         <x:v>P1167</x:v>
@@ -52592,10 +52592,10 @@
     </x:row>
     <x:row r="233">
       <x:c s="1861" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1862" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1863" t="str">
         <x:v>P1168</x:v>
@@ -52618,10 +52618,10 @@
     </x:row>
     <x:row r="234">
       <x:c s="1869" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1870" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1871" t="str">
         <x:v>P1187</x:v>
@@ -52644,10 +52644,10 @@
     </x:row>
     <x:row r="235">
       <x:c s="1877" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1878" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1879" t="str">
         <x:v>P1189</x:v>
@@ -52670,10 +52670,10 @@
     </x:row>
     <x:row r="236">
       <x:c s="1885" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1886" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1887" t="str">
         <x:v>P1190</x:v>
@@ -52696,10 +52696,10 @@
     </x:row>
     <x:row r="237">
       <x:c s="1893" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1894" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1895" t="str">
         <x:v>P1191</x:v>
@@ -52722,10 +52722,10 @@
     </x:row>
     <x:row r="238">
       <x:c s="1901" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1902" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1903" t="str">
         <x:v>P1202</x:v>
@@ -52748,10 +52748,10 @@
     </x:row>
     <x:row r="239">
       <x:c s="1909" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1910" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1911" t="str">
         <x:v>P1205</x:v>
@@ -52774,10 +52774,10 @@
     </x:row>
     <x:row r="240">
       <x:c s="1917" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1918" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1919" t="str">
         <x:v>P1206</x:v>
@@ -52800,10 +52800,10 @@
     </x:row>
     <x:row r="241">
       <x:c s="1925" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1926" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1927" t="str">
         <x:v>P1207</x:v>
@@ -52826,10 +52826,10 @@
     </x:row>
     <x:row r="242">
       <x:c s="1933" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1934" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1935" t="str">
         <x:v>P1222</x:v>
@@ -52852,10 +52852,10 @@
     </x:row>
     <x:row r="243">
       <x:c s="1941" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1942" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1943" t="str">
         <x:v>P1223</x:v>
@@ -52878,10 +52878,10 @@
     </x:row>
     <x:row r="244">
       <x:c s="1949" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1950" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1951" t="str">
         <x:v>P1305</x:v>
@@ -52904,10 +52904,10 @@
     </x:row>
     <x:row r="245">
       <x:c s="1957" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1958" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1959" t="str">
         <x:v>P1308</x:v>
@@ -52930,10 +52930,10 @@
     </x:row>
     <x:row r="246">
       <x:c s="1965" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1966" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1967" t="str">
         <x:v>P1309</x:v>
@@ -52956,10 +52956,10 @@
     </x:row>
     <x:row r="247">
       <x:c s="1973" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1974" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1975" t="str">
         <x:v>P1311</x:v>
@@ -52982,10 +52982,10 @@
     </x:row>
     <x:row r="248">
       <x:c s="1981" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1982" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1983" t="str">
         <x:v>P1312</x:v>
@@ -53008,10 +53008,10 @@
     </x:row>
     <x:row r="249">
       <x:c s="1989" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1990" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1991" t="str">
         <x:v>P1314</x:v>
@@ -53034,10 +53034,10 @@
     </x:row>
     <x:row r="250">
       <x:c s="1997" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="1998" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="1999" t="str">
         <x:v>P1315</x:v>
@@ -53060,10 +53060,10 @@
     </x:row>
     <x:row r="251">
       <x:c s="2005" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2006" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2007" t="str">
         <x:v>P1316</x:v>
@@ -53086,10 +53086,10 @@
     </x:row>
     <x:row r="252">
       <x:c s="2013" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2014" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2015" t="str">
         <x:v>P1401</x:v>
@@ -53112,10 +53112,10 @@
     </x:row>
     <x:row r="253">
       <x:c s="2021" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2022" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2023" t="str">
         <x:v>P1403</x:v>
@@ -53138,10 +53138,10 @@
     </x:row>
     <x:row r="254">
       <x:c s="2029" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2030" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2031" t="str">
         <x:v>P1422</x:v>
@@ -53164,10 +53164,10 @@
     </x:row>
     <x:row r="255">
       <x:c s="2037" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2038" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2039" t="str">
         <x:v>P1423</x:v>
@@ -53190,10 +53190,10 @@
     </x:row>
     <x:row r="256">
       <x:c s="2045" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2046" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2047" t="str">
         <x:v>P1701</x:v>
@@ -53216,10 +53216,10 @@
     </x:row>
     <x:row r="257">
       <x:c s="2053" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2054" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2055" t="str">
         <x:v>P1702</x:v>
@@ -53242,10 +53242,10 @@
     </x:row>
     <x:row r="258">
       <x:c s="2061" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2062" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2063" t="str">
         <x:v>P1708</x:v>
@@ -53268,10 +53268,10 @@
     </x:row>
     <x:row r="259">
       <x:c s="2069" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2070" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2071" t="str">
         <x:v>P1710</x:v>
@@ -53294,10 +53294,10 @@
     </x:row>
     <x:row r="260">
       <x:c s="2077" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2078" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2079" t="str">
         <x:v>P1720</x:v>
@@ -53320,10 +53320,10 @@
     </x:row>
     <x:row r="261">
       <x:c s="2085" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2086" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2087" t="str">
         <x:v>P1722</x:v>
@@ -53346,10 +53346,10 @@
     </x:row>
     <x:row r="262">
       <x:c s="2093" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2094" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2095" t="str">
         <x:v>P1723</x:v>
@@ -53372,10 +53372,10 @@
     </x:row>
     <x:row r="263">
       <x:c s="2101" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2102" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2103" t="str">
         <x:v>P1725</x:v>
@@ -53398,10 +53398,10 @@
     </x:row>
     <x:row r="264">
       <x:c s="2109" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2110" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2111" t="str">
         <x:v>P1726</x:v>
@@ -53424,10 +53424,10 @@
     </x:row>
     <x:row r="265">
       <x:c s="2117" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2118" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2119" t="str">
         <x:v>P1728</x:v>
@@ -53450,10 +53450,10 @@
     </x:row>
     <x:row r="266">
       <x:c s="2125" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2126" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2127" t="str">
         <x:v>P3001</x:v>
@@ -53476,10 +53476,10 @@
     </x:row>
     <x:row r="267">
       <x:c s="2133" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2134" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2135" t="str">
         <x:v>P3002</x:v>
@@ -53502,10 +53502,10 @@
     </x:row>
     <x:row r="268">
       <x:c s="2141" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2142" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2143" t="str">
         <x:v>P3207</x:v>
@@ -53528,10 +53528,10 @@
     </x:row>
     <x:row r="269">
       <x:c s="2149" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2150" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2151" t="str">
         <x:v>P3214</x:v>
@@ -53554,10 +53554,10 @@
     </x:row>
     <x:row r="270">
       <x:c s="2157" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2158" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2159" t="str">
         <x:v>P3216</x:v>
@@ -53580,10 +53580,10 @@
     </x:row>
     <x:row r="271">
       <x:c s="2165" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2166" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2167" t="str">
         <x:v>P3221</x:v>
@@ -53606,10 +53606,10 @@
     </x:row>
     <x:row r="272">
       <x:c s="2173" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2174" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2175" t="str">
         <x:v>P3232</x:v>
@@ -53632,10 +53632,10 @@
     </x:row>
     <x:row r="273">
       <x:c s="2181" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2182" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2183" t="str">
         <x:v>P3299</x:v>
@@ -53658,10 +53658,10 @@
     </x:row>
     <x:row r="274">
       <x:c s="2189" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2190" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2191" t="str">
         <x:v>P3303</x:v>
@@ -53684,10 +53684,10 @@
     </x:row>
     <x:row r="275">
       <x:c s="2197" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2198" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2199" t="str">
         <x:v>P3403</x:v>
@@ -53710,10 +53710,10 @@
     </x:row>
     <x:row r="276">
       <x:c s="2205" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2206" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2207" t="str">
         <x:v>P3501</x:v>
@@ -53736,10 +53736,10 @@
     </x:row>
     <x:row r="277">
       <x:c s="2213" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2214" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2215" t="str">
         <x:v>P3503</x:v>
@@ -53762,10 +53762,10 @@
     </x:row>
     <x:row r="278">
       <x:c s="2221" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2222" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2223" t="str">
         <x:v>P3504</x:v>
@@ -53788,10 +53788,10 @@
     </x:row>
     <x:row r="279">
       <x:c s="2229" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2230" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2231" t="str">
         <x:v>P3505</x:v>
@@ -53814,10 +53814,10 @@
     </x:row>
     <x:row r="280">
       <x:c s="2237" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2238" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2239" t="str">
         <x:v>P3506</x:v>
@@ -53840,10 +53840,10 @@
     </x:row>
     <x:row r="281">
       <x:c s="2245" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2246" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2247" t="str">
         <x:v>P3507</x:v>
@@ -53866,10 +53866,10 @@
     </x:row>
     <x:row r="282">
       <x:c s="2253" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2254" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2255" t="str">
         <x:v>P3508</x:v>
@@ -53892,10 +53892,10 @@
     </x:row>
     <x:row r="283">
       <x:c s="2261" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2262" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2263" t="str">
         <x:v>P3509</x:v>
@@ -53918,10 +53918,10 @@
     </x:row>
     <x:row r="284">
       <x:c s="2269" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2270" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2271" t="str">
         <x:v>P3512</x:v>
@@ -53944,10 +53944,10 @@
     </x:row>
     <x:row r="285">
       <x:c s="2277" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2278" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2279" t="str">
         <x:v>P3513</x:v>
@@ -53970,10 +53970,10 @@
     </x:row>
     <x:row r="286">
       <x:c s="2285" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2286" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2287" t="str">
         <x:v>P3601</x:v>
@@ -53996,10 +53996,10 @@
     </x:row>
     <x:row r="287">
       <x:c s="2293" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2294" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2295" t="str">
         <x:v>P3603</x:v>
@@ -54022,10 +54022,10 @@
     </x:row>
     <x:row r="288">
       <x:c s="2301" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2302" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2303" t="str">
         <x:v>P3605</x:v>
@@ -54048,10 +54048,10 @@
     </x:row>
     <x:row r="289">
       <x:c s="2309" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2310" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2311" t="str">
         <x:v>P3623</x:v>
@@ -54074,10 +54074,10 @@
     </x:row>
     <x:row r="290">
       <x:c s="2317" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2318" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2319" t="str">
         <x:v>P3699</x:v>
@@ -54100,10 +54100,10 @@
     </x:row>
     <x:row r="291">
       <x:c s="2325" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2326" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2327" t="str">
         <x:v>P6201</x:v>
@@ -54126,10 +54126,10 @@
     </x:row>
     <x:row r="292">
       <x:c s="2333" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2334" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2335" t="str">
         <x:v>P6204</x:v>
@@ -54152,10 +54152,10 @@
     </x:row>
     <x:row r="293">
       <x:c s="2341" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2342" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2343" t="str">
         <x:v>P6205</x:v>
@@ -54178,10 +54178,10 @@
     </x:row>
     <x:row r="294">
       <x:c s="2349" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2350" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2351" t="str">
         <x:v>P6206</x:v>
@@ -54204,10 +54204,10 @@
     </x:row>
     <x:row r="295">
       <x:c s="2357" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2358" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2359" t="str">
         <x:v>P6299</x:v>
@@ -54230,10 +54230,10 @@
     </x:row>
     <x:row r="296">
       <x:c s="2365" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2366" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2367" t="str">
         <x:v>P6414</x:v>
@@ -54256,10 +54256,10 @@
     </x:row>
     <x:row r="297">
       <x:c s="2373" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2374" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2375" t="str">
         <x:v>P6415</x:v>
@@ -54282,10 +54282,10 @@
     </x:row>
     <x:row r="298">
       <x:c s="2381" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2382" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2383" t="str">
         <x:v>P6416</x:v>
@@ -54308,10 +54308,10 @@
     </x:row>
     <x:row r="299">
       <x:c s="2389" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2390" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2391" t="str">
         <x:v>P6417</x:v>
@@ -54334,10 +54334,10 @@
     </x:row>
     <x:row r="300">
       <x:c s="2397" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2398" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2399" t="str">
         <x:v>P6424</x:v>
@@ -54360,10 +54360,10 @@
     </x:row>
     <x:row r="301">
       <x:c s="2405" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2406" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2407" t="str">
         <x:v>P6425</x:v>
@@ -54386,10 +54386,10 @@
     </x:row>
     <x:row r="302">
       <x:c s="2413" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2414" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2415" t="str">
         <x:v>P6436</x:v>
@@ -54412,10 +54412,10 @@
     </x:row>
     <x:row r="303">
       <x:c s="2421" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2422" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2423" t="str">
         <x:v>P6499</x:v>
@@ -54438,10 +54438,10 @@
     </x:row>
     <x:row r="304">
       <x:c s="2429" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2430" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2431" t="str">
         <x:v>P6550</x:v>
@@ -54464,10 +54464,10 @@
     </x:row>
     <x:row r="305">
       <x:c s="2437" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2438" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2439" t="str">
         <x:v>P6600</x:v>
@@ -54490,10 +54490,10 @@
     </x:row>
     <x:row r="306">
       <x:c s="2445" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2446" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2447" t="str">
         <x:v>P6601</x:v>
@@ -54516,10 +54516,10 @@
     </x:row>
     <x:row r="307">
       <x:c s="2453" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2454" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2455" t="str">
         <x:v>P6602</x:v>
@@ -54542,10 +54542,10 @@
     </x:row>
     <x:row r="308">
       <x:c s="2461" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2462" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2463" t="str">
         <x:v>P6603</x:v>
@@ -54568,10 +54568,10 @@
     </x:row>
     <x:row r="309">
       <x:c s="2469" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2470" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2471" t="str">
         <x:v>P6604</x:v>
@@ -54594,10 +54594,10 @@
     </x:row>
     <x:row r="310">
       <x:c s="2477" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2478" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2479" t="str">
         <x:v>P6605</x:v>
@@ -54620,10 +54620,10 @@
     </x:row>
     <x:row r="311">
       <x:c s="2485" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2486" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2487" t="str">
         <x:v>P6622</x:v>
@@ -54646,10 +54646,10 @@
     </x:row>
     <x:row r="312">
       <x:c s="2493" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2494" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2495" t="str">
         <x:v>P6704</x:v>
@@ -54672,10 +54672,10 @@
     </x:row>
     <x:row r="313">
       <x:c s="2501" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2502" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2503" t="str">
         <x:v>P6709</x:v>
@@ -54698,10 +54698,10 @@
     </x:row>
     <x:row r="314">
       <x:c s="2509" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2510" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2511" t="str">
         <x:v>P6721</x:v>
@@ -54724,10 +54724,10 @@
     </x:row>
     <x:row r="315">
       <x:c s="2517" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2518" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2519" t="str">
         <x:v>P6803</x:v>
@@ -54750,10 +54750,10 @@
     </x:row>
     <x:row r="316">
       <x:c s="2525" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2526" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2527" t="str">
         <x:v>P6805</x:v>
@@ -54776,10 +54776,10 @@
     </x:row>
     <x:row r="317">
       <x:c s="2533" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2534" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2535" t="str">
         <x:v>P6806</x:v>
@@ -54802,10 +54802,10 @@
     </x:row>
     <x:row r="318">
       <x:c s="2541" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2542" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2543" t="str">
         <x:v>P6807</x:v>
@@ -54828,10 +54828,10 @@
     </x:row>
     <x:row r="319">
       <x:c s="2549" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2550" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2551" t="str">
         <x:v>P6808</x:v>
@@ -54854,10 +54854,10 @@
     </x:row>
     <x:row r="320">
       <x:c s="2557" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2558" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2559" t="str">
         <x:v>P6809</x:v>
@@ -54880,10 +54880,10 @@
     </x:row>
     <x:row r="321">
       <x:c s="2565" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2566" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2567" t="str">
         <x:v>P6810</x:v>
@@ -54906,10 +54906,10 @@
     </x:row>
     <x:row r="322">
       <x:c s="2573" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2574" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2575" t="str">
         <x:v>P6905</x:v>
@@ -54932,10 +54932,10 @@
     </x:row>
     <x:row r="323">
       <x:c s="2581" t="str">
-        <x:v>T4 </x:v>
+        <x:v>T4</x:v>
       </x:c>
       <x:c s="2582" t="str">
-        <x:v> Support only</x:v>
+        <x:v>Support only</x:v>
       </x:c>
       <x:c s="2583" t="str">
         <x:v>P6906</x:v>
@@ -54958,10 +54958,10 @@
     </x:row>
     <x:row r="324">
       <x:c s="2589" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2590" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2591" t="str">
         <x:v>P1001</x:v>
@@ -54984,10 +54984,10 @@
     </x:row>
     <x:row r="325">
       <x:c s="2597" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2598" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2599" t="str">
         <x:v>P1002</x:v>
@@ -55010,10 +55010,10 @@
     </x:row>
     <x:row r="326">
       <x:c s="2605" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2606" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2607" t="str">
         <x:v>P1006</x:v>
@@ -55036,10 +55036,10 @@
     </x:row>
     <x:row r="327">
       <x:c s="2613" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2614" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2615" t="str">
         <x:v>P1008</x:v>
@@ -55062,10 +55062,10 @@
     </x:row>
     <x:row r="328">
       <x:c s="2621" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2622" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2623" t="str">
         <x:v>P1009</x:v>
@@ -55088,10 +55088,10 @@
     </x:row>
     <x:row r="329">
       <x:c s="2629" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2630" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2631" t="str">
         <x:v>P1021</x:v>
@@ -55114,10 +55114,10 @@
     </x:row>
     <x:row r="330">
       <x:c s="2637" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2638" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2639" t="str">
         <x:v>P1022</x:v>
@@ -55140,10 +55140,10 @@
     </x:row>
     <x:row r="331">
       <x:c s="2645" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2646" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2647" t="str">
         <x:v>P1024</x:v>
@@ -55166,10 +55166,10 @@
     </x:row>
     <x:row r="332">
       <x:c s="2653" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2654" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2655" t="str">
         <x:v>P1099</x:v>
@@ -55192,10 +55192,10 @@
     </x:row>
     <x:row r="333">
       <x:c s="2661" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2662" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2663" t="str">
         <x:v>P1102</x:v>
@@ -55218,10 +55218,10 @@
     </x:row>
     <x:row r="334">
       <x:c s="2669" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2670" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2671" t="str">
         <x:v>P1103</x:v>
@@ -55244,10 +55244,10 @@
     </x:row>
     <x:row r="335">
       <x:c s="2677" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2678" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2679" t="str">
         <x:v>P1108</x:v>
@@ -55270,10 +55270,10 @@
     </x:row>
     <x:row r="336">
       <x:c s="2685" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2686" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2687" t="str">
         <x:v>P1109</x:v>
@@ -55296,10 +55296,10 @@
     </x:row>
     <x:row r="337">
       <x:c s="2693" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2694" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2695" t="str">
         <x:v>P1110</x:v>
@@ -55322,10 +55322,10 @@
     </x:row>
     <x:row r="338">
       <x:c s="2701" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2702" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2703" t="str">
         <x:v>P1117</x:v>
@@ -55348,10 +55348,10 @@
     </x:row>
     <x:row r="339">
       <x:c s="2709" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2710" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2711" t="str">
         <x:v>P1118</x:v>
@@ -55374,10 +55374,10 @@
     </x:row>
     <x:row r="340">
       <x:c s="2717" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2718" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2719" t="str">
         <x:v>P1119</x:v>
@@ -55400,10 +55400,10 @@
     </x:row>
     <x:row r="341">
       <x:c s="2725" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2726" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2727" t="str">
         <x:v>P1120</x:v>
@@ -55426,10 +55426,10 @@
     </x:row>
     <x:row r="342">
       <x:c s="2733" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2734" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2735" t="str">
         <x:v>P1121</x:v>
@@ -55452,10 +55452,10 @@
     </x:row>
     <x:row r="343">
       <x:c s="2741" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2742" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2743" t="str">
         <x:v>P1124</x:v>
@@ -55478,10 +55478,10 @@
     </x:row>
     <x:row r="344">
       <x:c s="2749" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2750" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2751" t="str">
         <x:v>P1125</x:v>
@@ -55504,10 +55504,10 @@
     </x:row>
     <x:row r="345">
       <x:c s="2757" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2758" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2759" t="str">
         <x:v>P1127</x:v>
@@ -55530,10 +55530,10 @@
     </x:row>
     <x:row r="346">
       <x:c s="2765" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2766" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2767" t="str">
         <x:v>P1128</x:v>
@@ -55556,10 +55556,10 @@
     </x:row>
     <x:row r="347">
       <x:c s="2773" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2774" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2775" t="str">
         <x:v>P1129</x:v>
@@ -55582,10 +55582,10 @@
     </x:row>
     <x:row r="348">
       <x:c s="2781" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2782" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2783" t="str">
         <x:v>P1130</x:v>
@@ -55608,10 +55608,10 @@
     </x:row>
     <x:row r="349">
       <x:c s="2789" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2790" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2791" t="str">
         <x:v>P1132</x:v>
@@ -55634,10 +55634,10 @@
     </x:row>
     <x:row r="350">
       <x:c s="2797" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2798" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2799" t="str">
         <x:v>P1133</x:v>
@@ -55660,10 +55660,10 @@
     </x:row>
     <x:row r="351">
       <x:c s="2805" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2806" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2807" t="str">
         <x:v>P1134</x:v>
@@ -55686,10 +55686,10 @@
     </x:row>
     <x:row r="352">
       <x:c s="2813" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2814" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2815" t="str">
         <x:v>P1135</x:v>
@@ -55712,10 +55712,10 @@
     </x:row>
     <x:row r="353">
       <x:c s="2821" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2822" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2823" t="str">
         <x:v>P1139</x:v>
@@ -55738,10 +55738,10 @@
     </x:row>
     <x:row r="354">
       <x:c s="2829" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2830" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2831" t="str">
         <x:v>P1169</x:v>
@@ -55764,10 +55764,10 @@
     </x:row>
     <x:row r="355">
       <x:c s="2837" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2838" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2839" t="str">
         <x:v>P1201</x:v>
@@ -55790,10 +55790,10 @@
     </x:row>
     <x:row r="356">
       <x:c s="2845" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2846" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2847" t="str">
         <x:v>P1203</x:v>
@@ -55816,10 +55816,10 @@
     </x:row>
     <x:row r="357">
       <x:c s="2853" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2854" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2855" t="str">
         <x:v>P1204</x:v>
@@ -55842,10 +55842,10 @@
     </x:row>
     <x:row r="358">
       <x:c s="2861" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2862" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2863" t="str">
         <x:v>P1208</x:v>
@@ -55868,10 +55868,10 @@
     </x:row>
     <x:row r="359">
       <x:c s="2869" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2870" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2871" t="str">
         <x:v>P1209</x:v>
@@ -55894,10 +55894,10 @@
     </x:row>
     <x:row r="360">
       <x:c s="2877" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2878" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2879" t="str">
         <x:v>P1210</x:v>
@@ -55920,10 +55920,10 @@
     </x:row>
     <x:row r="361">
       <x:c s="2885" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2886" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2887" t="str">
         <x:v>P1211</x:v>
@@ -55946,10 +55946,10 @@
     </x:row>
     <x:row r="362">
       <x:c s="2893" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2894" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2895" t="str">
         <x:v>P1212</x:v>
@@ -55972,10 +55972,10 @@
     </x:row>
     <x:row r="363">
       <x:c s="2901" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2902" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2903" t="str">
         <x:v>P1213</x:v>
@@ -55998,10 +55998,10 @@
     </x:row>
     <x:row r="364">
       <x:c s="2909" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2910" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2911" t="str">
         <x:v>P1221</x:v>
@@ -56024,10 +56024,10 @@
     </x:row>
     <x:row r="365">
       <x:c s="2917" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2918" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2919" t="str">
         <x:v>P1299</x:v>
@@ -56050,10 +56050,10 @@
     </x:row>
     <x:row r="366">
       <x:c s="2925" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2926" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2927" t="str">
         <x:v>P1302</x:v>
@@ -56076,10 +56076,10 @@
     </x:row>
     <x:row r="367">
       <x:c s="2933" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2934" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2935" t="str">
         <x:v>P1303</x:v>
@@ -56102,10 +56102,10 @@
     </x:row>
     <x:row r="368">
       <x:c s="2941" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2942" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2943" t="str">
         <x:v>P1304</x:v>
@@ -56128,10 +56128,10 @@
     </x:row>
     <x:row r="369">
       <x:c s="2949" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2950" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2951" t="str">
         <x:v>P1313</x:v>
@@ -56154,10 +56154,10 @@
     </x:row>
     <x:row r="370">
       <x:c s="2957" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2958" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2959" t="str">
         <x:v>P1324</x:v>
@@ -56180,10 +56180,10 @@
     </x:row>
     <x:row r="371">
       <x:c s="2965" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2966" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2967" t="str">
         <x:v>P1402</x:v>
@@ -56206,10 +56206,10 @@
     </x:row>
     <x:row r="372">
       <x:c s="2973" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2974" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2975" t="str">
         <x:v>P1404</x:v>
@@ -56232,10 +56232,10 @@
     </x:row>
     <x:row r="373">
       <x:c s="2981" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2982" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2983" t="str">
         <x:v>P1405</x:v>
@@ -56258,10 +56258,10 @@
     </x:row>
     <x:row r="374">
       <x:c s="2989" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2990" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2991" t="str">
         <x:v>P1406</x:v>
@@ -56284,10 +56284,10 @@
     </x:row>
     <x:row r="375">
       <x:c s="2997" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="2998" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="2999" t="str">
         <x:v>P1421</x:v>
@@ -56310,10 +56310,10 @@
     </x:row>
     <x:row r="376">
       <x:c s="3005" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3006" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3007" t="str">
         <x:v>P1499</x:v>
@@ -56336,10 +56336,10 @@
     </x:row>
     <x:row r="377">
       <x:c s="3013" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3014" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3015" t="str">
         <x:v>P1703</x:v>
@@ -56362,10 +56362,10 @@
     </x:row>
     <x:row r="378">
       <x:c s="3021" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3022" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3023" t="str">
         <x:v>P1705</x:v>
@@ -56388,10 +56388,10 @@
     </x:row>
     <x:row r="379">
       <x:c s="3029" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3030" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3031" t="str">
         <x:v>P1706</x:v>
@@ -56414,10 +56414,10 @@
     </x:row>
     <x:row r="380">
       <x:c s="3037" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3038" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3039" t="str">
         <x:v>P1721</x:v>
@@ -56440,10 +56440,10 @@
     </x:row>
     <x:row r="381">
       <x:c s="3045" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3046" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3047" t="str">
         <x:v>P1724</x:v>
@@ -56466,10 +56466,10 @@
     </x:row>
     <x:row r="382">
       <x:c s="3053" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3054" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3055" t="str">
         <x:v>P1799</x:v>
@@ -56492,10 +56492,10 @@
     </x:row>
     <x:row r="383">
       <x:c s="3061" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3062" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3063" t="str">
         <x:v>P2138</x:v>
@@ -56518,10 +56518,10 @@
     </x:row>
     <x:row r="384">
       <x:c s="3069" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3070" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3071" t="str">
         <x:v>P3003</x:v>
@@ -56544,10 +56544,10 @@
     </x:row>
     <x:row r="385">
       <x:c s="3077" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3078" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3079" t="str">
         <x:v>P3099</x:v>
@@ -56570,10 +56570,10 @@
     </x:row>
     <x:row r="386">
       <x:c s="3085" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3086" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3087" t="str">
         <x:v>P3103</x:v>
@@ -56596,10 +56596,10 @@
     </x:row>
     <x:row r="387">
       <x:c s="3093" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3094" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3095" t="str">
         <x:v>P3104</x:v>
@@ -56622,10 +56622,10 @@
     </x:row>
     <x:row r="388">
       <x:c s="3101" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3102" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3103" t="str">
         <x:v>P3106</x:v>
@@ -56648,10 +56648,10 @@
     </x:row>
     <x:row r="389">
       <x:c s="3109" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3110" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3111" t="str">
         <x:v>P3211</x:v>
@@ -56674,10 +56674,10 @@
     </x:row>
     <x:row r="390">
       <x:c s="3117" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3118" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3119" t="str">
         <x:v>P3212</x:v>
@@ -56700,10 +56700,10 @@
     </x:row>
     <x:row r="391">
       <x:c s="3125" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3126" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3127" t="str">
         <x:v>P3213</x:v>
@@ -56726,10 +56726,10 @@
     </x:row>
     <x:row r="392">
       <x:c s="3133" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3134" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3135" t="str">
         <x:v>P3218</x:v>
@@ -56752,10 +56752,10 @@
     </x:row>
     <x:row r="393">
       <x:c s="3141" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3142" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3143" t="str">
         <x:v>P3220</x:v>
@@ -56778,10 +56778,10 @@
     </x:row>
     <x:row r="394">
       <x:c s="3149" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3150" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3151" t="str">
         <x:v>P3222</x:v>
@@ -56804,10 +56804,10 @@
     </x:row>
     <x:row r="395">
       <x:c s="3157" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3158" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3159" t="str">
         <x:v>P3304</x:v>
@@ -56830,10 +56830,10 @@
     </x:row>
     <x:row r="396">
       <x:c s="3165" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3166" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3167" t="str">
         <x:v>P3307</x:v>
@@ -56856,10 +56856,10 @@
     </x:row>
     <x:row r="397">
       <x:c s="3173" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3174" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3175" t="str">
         <x:v>P3308</x:v>
@@ -56882,10 +56882,10 @@
     </x:row>
     <x:row r="398">
       <x:c s="3181" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3182" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3183" t="str">
         <x:v>P3309</x:v>
@@ -56908,10 +56908,10 @@
     </x:row>
     <x:row r="399">
       <x:c s="3189" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3190" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3191" t="str">
         <x:v>P3404</x:v>
@@ -56934,10 +56934,10 @@
     </x:row>
     <x:row r="400">
       <x:c s="3197" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3198" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3199" t="str">
         <x:v>P3406</x:v>
@@ -56960,10 +56960,10 @@
     </x:row>
     <x:row r="401">
       <x:c s="3205" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3206" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3207" t="str">
         <x:v>P3407</x:v>
@@ -56986,10 +56986,10 @@
     </x:row>
     <x:row r="402">
       <x:c s="3213" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3214" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3215" t="str">
         <x:v>P3424</x:v>
@@ -57012,10 +57012,10 @@
     </x:row>
     <x:row r="403">
       <x:c s="3221" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3222" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3223" t="str">
         <x:v>P3502</x:v>
@@ -57038,10 +57038,10 @@
     </x:row>
     <x:row r="404">
       <x:c s="3229" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3230" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3231" t="str">
         <x:v>P3511</x:v>
@@ -57064,10 +57064,10 @@
     </x:row>
     <x:row r="405">
       <x:c s="3237" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3238" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3239" t="str">
         <x:v>P3514</x:v>
@@ -57090,10 +57090,10 @@
     </x:row>
     <x:row r="406">
       <x:c s="3245" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3246" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3247" t="str">
         <x:v>P3521</x:v>
@@ -57116,10 +57116,10 @@
     </x:row>
     <x:row r="407">
       <x:c s="3253" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3254" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3255" t="str">
         <x:v>P3522</x:v>
@@ -57142,10 +57142,10 @@
     </x:row>
     <x:row r="408">
       <x:c s="3261" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3262" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3263" t="str">
         <x:v>P3599</x:v>
@@ -57168,10 +57168,10 @@
     </x:row>
     <x:row r="409">
       <x:c s="3269" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3270" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3271" t="str">
         <x:v>P3602</x:v>
@@ -57194,10 +57194,10 @@
     </x:row>
     <x:row r="410">
       <x:c s="3277" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3278" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3279" t="str">
         <x:v>P3604</x:v>
@@ -57220,10 +57220,10 @@
     </x:row>
     <x:row r="411">
       <x:c s="3285" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3286" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3287" t="str">
         <x:v>P3606</x:v>
@@ -57246,10 +57246,10 @@
     </x:row>
     <x:row r="412">
       <x:c s="3293" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3294" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3295" t="str">
         <x:v>P3621</x:v>
@@ -57272,10 +57272,10 @@
     </x:row>
     <x:row r="413">
       <x:c s="3301" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3302" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3303" t="str">
         <x:v>P3622</x:v>
@@ -57298,10 +57298,10 @@
     </x:row>
     <x:row r="414">
       <x:c s="3309" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3310" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3311" t="str">
         <x:v>P6203</x:v>
@@ -57324,10 +57324,10 @@
     </x:row>
     <x:row r="415">
       <x:c s="3317" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3318" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3319" t="str">
         <x:v>P6222</x:v>
@@ -57350,10 +57350,10 @@
     </x:row>
     <x:row r="416">
       <x:c s="3325" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3326" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3327" t="str">
         <x:v>P6304</x:v>
@@ -57376,10 +57376,10 @@
     </x:row>
     <x:row r="417">
       <x:c s="3333" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3334" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3335" t="str">
         <x:v>P6324</x:v>
@@ -57402,10 +57402,10 @@
     </x:row>
     <x:row r="418">
       <x:c s="3341" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3342" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3343" t="str">
         <x:v>P6334</x:v>
@@ -57428,10 +57428,10 @@
     </x:row>
     <x:row r="419">
       <x:c s="3349" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3350" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3351" t="str">
         <x:v>P6422</x:v>
@@ -57454,10 +57454,10 @@
     </x:row>
     <x:row r="420">
       <x:c s="3357" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3358" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3359" t="str">
         <x:v>P6423</x:v>
@@ -57480,10 +57480,10 @@
     </x:row>
     <x:row r="421">
       <x:c s="3365" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3366" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3367" t="str">
         <x:v>P6488</x:v>
@@ -57506,10 +57506,10 @@
     </x:row>
     <x:row r="422">
       <x:c s="3373" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3374" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3375" t="str">
         <x:v>P6523</x:v>
@@ -57532,10 +57532,10 @@
     </x:row>
     <x:row r="423">
       <x:c s="3381" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3382" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3383" t="str">
         <x:v>P6621</x:v>
@@ -57558,10 +57558,10 @@
     </x:row>
     <x:row r="424">
       <x:c s="3389" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3390" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3391" t="str">
         <x:v>P6701</x:v>
@@ -57584,10 +57584,10 @@
     </x:row>
     <x:row r="425">
       <x:c s="3397" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3398" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3399" t="str">
         <x:v>P6702</x:v>
@@ -57610,10 +57610,10 @@
     </x:row>
     <x:row r="426">
       <x:c s="3405" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3406" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3407" t="str">
         <x:v>P6710</x:v>
@@ -57636,10 +57636,10 @@
     </x:row>
     <x:row r="427">
       <x:c s="3413" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3414" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3415" t="str">
         <x:v>P6712</x:v>
@@ -57662,10 +57662,10 @@
     </x:row>
     <x:row r="428">
       <x:c s="3421" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3422" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3423" t="str">
         <x:v>P6713</x:v>
@@ -57688,10 +57688,10 @@
     </x:row>
     <x:row r="429">
       <x:c s="3429" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3430" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3431" t="str">
         <x:v>P6821</x:v>
@@ -57714,10 +57714,10 @@
     </x:row>
     <x:row r="430">
       <x:c s="3437" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3438" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3439" t="str">
         <x:v>P7006</x:v>
@@ -57740,10 +57740,10 @@
     </x:row>
     <x:row r="431">
       <x:c s="3445" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3446" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3447" t="str">
         <x:v>P7007</x:v>
@@ -57766,10 +57766,10 @@
     </x:row>
     <x:row r="432">
       <x:c s="3453" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3454" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3455" t="str">
         <x:v>P7009</x:v>
@@ -57792,10 +57792,10 @@
     </x:row>
     <x:row r="433">
       <x:c s="3461" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3462" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3463" t="str">
         <x:v>P7010</x:v>
@@ -57818,10 +57818,10 @@
     </x:row>
     <x:row r="434">
       <x:c s="3469" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3470" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3471" t="str">
         <x:v>P7011</x:v>
@@ -57844,10 +57844,10 @@
     </x:row>
     <x:row r="435">
       <x:c s="3477" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3478" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3479" t="str">
         <x:v>P7012</x:v>
@@ -57870,10 +57870,10 @@
     </x:row>
     <x:row r="436">
       <x:c s="3485" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3486" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3487" t="str">
         <x:v>P7013</x:v>
@@ -57896,10 +57896,10 @@
     </x:row>
     <x:row r="437">
       <x:c s="3493" t="str">
-        <x:v>T5 </x:v>
+        <x:v>T5</x:v>
       </x:c>
       <x:c s="3494" t="str">
-        <x:v> End of Life</x:v>
+        <x:v>End of Life</x:v>
       </x:c>
       <x:c s="3495" t="str">
         <x:v>P7014</x:v>

--- a/WebApplication1/Template/Tier Hierarchy.xlsx
+++ b/WebApplication1/Template/Tier Hierarchy.xlsx
@@ -55895,7 +55895,7 @@
         <x:v>P3603</x:v>
       </x:c>
       <x:c s="2416" t="str">
-        <x:v>Auto-View,Auto-Stor</x:v>
+        <x:v>Auto-View Auto-Stor</x:v>
       </x:c>
       <x:c s="2417" t="str">
         <x:v>Data Modernization</x:v>
